--- a/public/preprocessing/@NurazizaShima.xlsx
+++ b/public/preprocessing/@NurazizaShima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16644</v>
+        <v>27413</v>
       </c>
       <c r="C2" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt lelaki muslim yang shalih terasa aneh asing jika berada dalam kekuasaan wanita hina dan buruk akhlaknya syaikh naw</t>
+          <t>rt orang yang berhati ikhlas bagaikan tanah yang subur sekecil apapun benih kebaikan akan mudah tumbuh dan berkembang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'lelaki', 'muslim', 'yang', 'shalih', 'terasa', 'aneh', 'asing', 'jika', 'berada', 'dalam', 'kekuasaan', 'wanita', 'hina', 'dan', 'buruk', 'akhlaknya', 'syaikh', 'naw']</t>
+          <t>['rt', 'orang', 'yang', 'berhati', 'ikhlas', 'bagaikan', 'tanah', 'yang', 'subur', 'sekecil', 'apapun', 'benih', 'kebaikan', 'akan', 'mudah', 'tumbuh', 'dan', 'berkembang']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'orang', 'yang', 'berhati', 'ikhlas', 'bagaikan', 'tanah', 'yang', 'subur', 'sekecil', 'apapun', 'benih', 'kebaikan', 'akan', 'mudah', 'tumbuh', 'dan', 'berkembang']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['lelaki', 'muslim', 'shalih', 'aneh', 'asing', 'kekuasaan', 'wanita', 'hina', 'buruk', 'akhlaknya', 'syaikh', 'naw']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['lelaki', 'muslim', 'shalih', 'aneh', 'asing', 'kuasa', 'wanita', 'hina', 'buruk', 'akhlak', 'syaikh', 'naw']</t>
+          <t>['orang', 'berhati', 'ikhlas', 'tanah', 'subur', 'apapun', 'benih', 'kebaikan', 'mudah', 'tumbuh', 'berkembang']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['orang', 'hati', 'ikhlas', 'tanah', 'subur', 'apa', 'benih', 'baik', 'mudah', 'tumbuh', 'kembang']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16645</v>
+        <v>27414</v>
       </c>
       <c r="C3" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt wanita muslimah yang shalihah terasa aneh asing jika berada dalam kekuasaan suami yang zalim yang buruk akhlaknya</t>
+          <t>rt khadijah allah swt membenci orang yang meminta sesuatu dari orang lain dengan cara memaksa tapi allah swt suka jika dimintai</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'wanita', 'muslimah', 'yang', 'shalihah', 'terasa', 'aneh', 'asing', 'jika', 'berada', 'dalam', 'kekuasaan', 'suami', 'yang', 'zalim', 'yang', 'buruk', 'akhlaknya']</t>
+          <t>['rt', 'khadijah', 'allah', 'swt', 'membenci', 'orang', 'yang', 'meminta', 'sesuatu', 'dari', 'orang', 'lain', 'dengan', 'cara', 'memaksa', 'tapi', 'allah', 'swt', 'suka', 'jika', 'dimintai']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'allah', 'subhanahu, wa, taala', 'membenci', 'orang', 'yang', 'meminta', 'sesuatu', 'dari', 'orang', 'lain', 'dengan', 'cara', 'memaksa', 'tapi', 'allah', 'subhanahu, wa, taala', 'suka', 'jika', 'dimintai']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['wanita', 'muslimah', 'shalihah', 'aneh', 'asing', 'kekuasaan', 'suami', 'zalim', 'buruk', 'akhlaknya']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['wanita', 'muslimah', 'shalihah', 'aneh', 'asing', 'kuasa', 'suami', 'zalim', 'buruk', 'akhlak']</t>
+          <t>['khadijah', 'allah', 'subhanahu, wa, taala', 'membenci', 'orang', 'orang', 'memaksa', 'allah', 'subhanahu, wa, taala', 'suka']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['khadijah', 'allah', 'subhanahu wa taala', 'benci', 'orang', 'orang', 'paksa', 'allah', 'subhanahu wa taala', 'suka']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16646</v>
+        <v>27415</v>
       </c>
       <c r="C4" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt aku mengenal cinta sejak aku mengenal cintamu hatiku telah terkunci bagi selainmu aku selalu siap mendesahkan namamu</t>
+          <t>rt asma bahagia paling gampang itu ekspresinya ya guyon nunggu punya alphard dulu repot nunggu punya uang banyak dulu ya repot</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'aku', 'mengenal', 'cinta', 'sejak', 'aku', 'mengenal', 'cintamu', 'hatiku', 'telah', 'terkunci', 'bagi', 'selainmu', 'aku', 'selalu', 'siap', 'mendesahkan', 'namamu']</t>
+          <t>['rt', 'asma', 'bahagia', 'paling', 'gampang', 'itu', 'ekspresinya', 'ya', 'guyon', 'nunggu', 'punya', 'alphard', 'dulu', 'repot', 'nunggu', 'punya', 'uang', 'banyak', 'dulu', 'ya', 'repot']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'asma', 'bahagia', 'paling', 'gampang', 'itu', 'ekspresinya', 'ya', 'guyon', 'menunggu', 'punya', 'alphard', 'dulu', 'repot', 'menunggu', 'punya', 'uang', 'banyak', 'dulu', 'ya', 'repot']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['mengenal', 'cinta', 'mengenal', 'cintamu', 'hatiku', 'terkunci', 'selainmu', 'mendesahkan', 'namamu']</t>
+          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['kenal', 'cinta', 'kenal', 'cinta', 'hati', 'kunci', 'selain', 'desah', 'nama']</t>
+          <t>['asma', 'bahagia', 'gampang', 'ekspresinya', 'guyon', 'menunggu', 'alphard', 'repot', 'menunggu', 'uang', 'repot']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['asma', 'bahagia', 'gampang', 'ekspresi', 'guyon', 'tunggu', 'alphard', 'repot', 'tunggu', 'uang', 'repot']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16647</v>
+        <v>27416</v>
       </c>
       <c r="C5" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lelaki muslim yang shalih terasa aneh asing jika berada dalam kekuasaan wanita hina dan buruk akhlaknya syaik</t>
+          <t>orang yang berhati ikhlas bagaikan tanah yang subur sekecil apapun benih kebaikan akan mudah tumbuh dan berkemban</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['lelaki', 'muslim', 'yang', 'shalih', 'terasa', 'aneh', 'asing', 'jika', 'berada', 'dalam', 'kekuasaan', 'wanita', 'hina', 'dan', 'buruk', 'akhlaknya', 'syaik']</t>
+          <t>['orang', 'yang', 'berhati', 'ikhlas', 'bagaikan', 'tanah', 'yang', 'subur', 'sekecil', 'apapun', 'benih', 'kebaikan', 'akan', 'mudah', 'tumbuh', 'dan', 'berkemban']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['orang', 'yang', 'berhati', 'ikhlas', 'bagaikan', 'tanah', 'yang', 'subur', 'sekecil', 'apapun', 'benih', 'kebaikan', 'akan', 'mudah', 'tumbuh', 'dan', 'berkemban']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['lelaki', 'muslim', 'shalih', 'aneh', 'asing', 'kekuasaan', 'wanita', 'hina', 'buruk', 'akhlaknya', 'syaik']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['lelaki', 'muslim', 'shalih', 'aneh', 'asing', 'kuasa', 'wanita', 'hina', 'buruk', 'akhlak', 'syaik']</t>
+          <t>['orang', 'berhati', 'ikhlas', 'tanah', 'subur', 'apapun', 'benih', 'kebaikan', 'mudah', 'tumbuh', 'berkemban']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['orang', 'hati', 'ikhlas', 'tanah', 'subur', 'apa', 'benih', 'baik', 'mudah', 'tumbuh', 'kemban']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16648</v>
+        <v>27417</v>
       </c>
       <c r="C6" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>wanita muslimah yang shalihah terasa aneh asing jika berada dalam kekuasaan suami yang zalim yang buruk akhlakn</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['wanita', 'muslimah', 'yang', 'shalihah', 'terasa', 'aneh', 'asing', 'jika', 'berada', 'dalam', 'kekuasaan', 'suami', 'yang', 'zalim', 'yang', 'buruk', 'akhlakn']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['wanita', 'muslimah', 'shalihah', 'aneh', 'asing', 'kekuasaan', 'suami', 'zalim', 'buruk', 'akhlakn']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['wanita', 'muslimah', 'shalihah', 'aneh', 'asing', 'kuasa', 'suami', 'zalim', 'buruk', 'akhlakn']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16649</v>
+        <v>27418</v>
       </c>
       <c r="C7" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>bener banget sih</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['bener', 'banget', 'sih']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['bener', 'banget']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['bener', 'banget']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16650</v>
+        <v>27419</v>
       </c>
       <c r="C8" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>aku mengenal cinta sejak aku mengenal cintamu hatiku telah terkunci bagi selainmu aku selalu siap mendesahkan na</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['aku', 'mengenal', 'cinta', 'sejak', 'aku', 'mengenal', 'cintamu', 'hatiku', 'telah', 'terkunci', 'bagi', 'selainmu', 'aku', 'selalu', 'siap', 'mendesahkan', 'na']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['mengenal', 'cinta', 'mengenal', 'cintamu', 'hatiku', 'terkunci', 'selainmu', 'mendesahkan', 'na']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['kenal', 'cinta', 'kenal', 'cinta', 'hati', 'kunci', 'selain', 'desah', 'na']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16651</v>
+        <v>27420</v>
       </c>
       <c r="C9" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt asma orang yang melihat kemuliaan allah maka akan menghasilkan akhlak berupa memuliakan sesama makhluk kh maimoen zubair</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'orang', 'yang', 'melihat', 'kemuliaan', 'allah', 'maka', 'akan', 'menghasilkan', 'akhlak', 'berupa', 'memuliakan', 'sesama', 'makhluk', 'kh', 'maimoen', 'zubair']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['asma', 'orang', 'kemuliaan', 'allah', 'menghasilkan', 'akhlak', 'memuliakan', 'makhluk', 'kh', 'maimoen', 'zubair']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['asma', 'orang', 'mulia', 'allah', 'hasil', 'akhlak', 'mulia', 'makhluk', 'kh', 'maimoen', 'zubair']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16652</v>
+        <v>27421</v>
       </c>
       <c r="C10" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt khadijah yang sangat penting sekali mendapatkan panutan dan guru yang tepat karena situasinya seperti saat ini dimanamana </t>
+          <t>rt khadijah mencintai dunia itu wajar asalkan jangan sampai cinta itu membuat kita mendurhakai tuhan prof quraish shihab</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'yang', 'sangat', 'penting', 'sekali', 'mendapatkan', 'panutan', 'dan', 'guru', 'yang', 'tepat', 'karena', 'situasinya', 'seperti', 'saat', 'ini', 'dimanamana']</t>
+          <t>['rt', 'khadijah', 'mencintai', 'dunia', 'itu', 'wajar', 'asalkan', 'jangan', 'sampai', 'cinta', 'itu', 'membuat', 'kita', 'mendurhakai', 'tuhan', 'prof', 'quraish', 'shihab']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['rt', 'khadijah', 'mencintai', 'dunia', 'itu', 'wajar', 'asalkan', 'jangan', 'sampai', 'cinta', 'itu', 'membuat', 'kita', 'mendurhakai', 'tuhan', 'prof', 'quraish', 'shihab']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['khadijah', 'panutan', 'guru', 'situasinya', 'dimanamana']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['khadijah', 'panutan', 'guru', 'situasi', 'dimanamana']</t>
+          <t>['khadijah', 'mencintai', 'dunia', 'wajar', 'cinta', 'mendurhakai', 'tuhan', 'prof', 'quraish', 'shihab']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['khadijah', 'cinta', 'dunia', 'wajar', 'cinta', 'durhaka', 'tuhan', 'prof', 'quraish', 'shihab']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16653</v>
+        <v>27422</v>
       </c>
       <c r="C11" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt orang pencari yang takkan pernah kenyang pencari harta dan pencari ilmu namun keduanya punya derajat yang sungguh</t>
+          <t xml:space="preserve">rt asma kunci awet muda banyak membaca sholawat sholawat itu lebih ampuh dr pada segala mantra yg kita miliki tidak ada yg bisa </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'orang', 'pencari', 'yang', 'takkan', 'pernah', 'kenyang', 'pencari', 'harta', 'dan', 'pencari', 'ilmu', 'namun', 'keduanya', 'punya', 'derajat', 'yang', 'sungguh']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'banyak', 'membaca', 'sholawat', 'sholawat', 'itu', 'lebih', 'ampuh', 'dr', 'pada', 'segala', 'mantra', 'yg', 'kita', 'miliki', 'tidak', 'ada', 'yg', 'bisa']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'banyak', 'membaca', 'sholawat', 'sholawat', 'itu', 'lebih', 'ampuh', 'dari', 'pada', 'segala', 'mantra', 'yang', 'kita', 'miliki', 'tidak', 'ada', 'yang', 'bisa']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['orang', 'pencari', 'takkan', 'kenyang', 'pencari', 'harta', 'pencari', 'ilmu', 'derajat', 'sungguh']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['orang', 'cari', 'tak', 'kenyang', 'cari', 'harta', 'cari', 'ilmu', 'derajat', 'sungguh']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'membaca', 'sholawat', 'sholawat', 'ampuh', 'mantra', 'miliki']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'baca', 'sholawat', 'sholawat', 'ampuh', 'mantra', 'milik']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16654</v>
+        <v>27423</v>
       </c>
       <c r="C12" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt fre jujurlah walaupun awalnya menyakitkan jangan boong cuman buat bikin terkesan gelay</t>
+          <t>rt perbedaan pendapat itu penting tetapi pertentangan dan terpecah belahan adalah sebuah malapetaka gus dur xii ips</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'fre', 'jujurlah', 'walaupun', 'awalnya', 'menyakitkan', 'jangan', 'boong', 'cuman', 'buat', 'bikin', 'terkesan', 'gelay']</t>
+          <t>['rt', 'perbedaan', 'pendapat', 'itu', 'penting', 'tetapi', 'pertentangan', 'dan', 'terpecah', 'belahan', 'adalah', 'sebuah', 'malapetaka', 'gus', 'dur', 'xii', 'ips']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'perbedaan', 'pendapat', 'itu', 'penting', 'tetapi', 'pertentangan', 'dan', 'terpecah', 'belahan', 'adalah', 'sebuah', 'malapetaka', 'gus', 'dur', 'xii', 'ilmu, pengetahuan, sosial']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['fre', 'jujurlah', 'menyakitkan', 'boong', 'cuman', 'terkesan', 'gelay']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['fre', 'jujur', 'sakit', 'boong', 'cuman', 'kes', 'gelay']</t>
+          <t>['perbedaan', 'pendapat', 'pertentangan', 'terpecah', 'belahan', 'malapetaka', 'gus', 'dur', 'xii', 'ilmu, pengetahuan, sosial']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['beda', 'dapat', 'tentang', 'pecah', 'bahan', 'malapetaka', 'gus', 'dur', 'xii', 'ilmu tahu sosial']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16655</v>
+        <v>27424</v>
       </c>
       <c r="C13" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt selama nikmat dan karunia masih dimiliki seringkali kita lalai dan tidak menghargai dan tidak menggunakannya dengan benar</t>
+          <t>rt khadijah dunyo iku dadi tepo tulodhone neng akhirat dunia menjadi cermin contoh di akhirat kh maimun zubair</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'selama', 'nikmat', 'dan', 'karunia', 'masih', 'dimiliki', 'seringkali', 'kita', 'lalai', 'dan', 'tidak', 'menghargai', 'dan', 'tidak', 'menggunakannya', 'dengan', 'benar']</t>
+          <t>['rt', 'khadijah', 'dunyo', 'iku', 'dadi', 'tepo', 'tulodhone', 'neng', 'akhirat', 'dunia', 'menjadi', 'cermin', 'contoh', 'di', 'akhirat', 'kh', 'maimun', 'zubair']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'dunia', 'ikut', 'dadi', 'tepo', 'tulodhone', 'neng', 'akhirat', 'dunia', 'menjadi', 'cermin', 'contoh', 'di', 'akhirat', 'kh', 'maimun', 'zubair']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['nikmat', 'karunia', 'dimiliki', 'seringkali', 'lalai', 'menghargai', 'menggunakannya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['nikmat', 'karunia', 'milik', 'seringkali', 'lalai', 'harga', 'guna']</t>
+          <t>['khadijah', 'dunia', 'dadi', 'tepo', 'tulodhone', 'neng', 'akhirat', 'dunia', 'cermin', 'contoh', 'akhirat', 'kh', 'maimun', 'zubair']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['khadijah', 'dunia', 'dadi', 'tepo', 'tulodhone', 'neng', 'akhirat', 'dunia', 'cermin', 'contoh', 'akhirat', 'kh', 'maimun', 'zubair']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16656</v>
+        <v>27425</v>
       </c>
       <c r="C14" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt batrisyia rasulullah saw orang yg cerdas bukanlah orang yg gelar pendidikannya paling banyak dan iq tinggi tapi dialah yg pal</t>
+          <t>rt khadijah islam tidak melarang soal percintaan yang dilarang adalah tindakantindakan negatif yang dilakukan atas nama cinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'batrisyia', 'rasulullah', 'saw', 'orang', 'yg', 'cerdas', 'bukanlah', 'orang', 'yg', 'gelar', 'pendidikannya', 'paling', 'banyak', 'dan', 'iq', 'tinggi', 'tapi', 'dialah', 'yg', 'pal']</t>
+          <t>['rt', 'khadijah', 'islam', 'tidak', 'melarang', 'soal', 'percintaan', 'yang', 'dilarang', 'adalah', 'tindakantindakan', 'negatif', 'yang', 'dilakukan', 'atas', 'nama', 'cinta']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'islam', 'tidak', 'melarang', 'soal', 'percintaan', 'yang', 'dilarang', 'adalah', 'tindakantindakan', 'negatif', 'yang', 'dilakukan', 'atas', 'nama', 'cinta']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['batrisyia', 'rasulullah', 'saw', 'orang', 'cerdas', 'orang', 'gelar', 'pendidikannya', 'iq', 'pal']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['batrisyia', 'rasulullah', 'saw', 'orang', 'cerdas', 'orang', 'gelar', 'didik', 'iq', 'pal']</t>
+          <t>['khadijah', 'islam', 'melarang', 'percintaan', 'dilarang', 'tindakantindakan', 'negatif', 'nama', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['khadijah', 'islam', 'larang', 'cinta', 'larang', 'tindakantindakan', 'negatif', 'nama', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16657</v>
+        <v>27426</v>
       </c>
       <c r="C15" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>gunakanlah waktu dan kesempatan sebaik mungkin</t>
+          <t>rt asma kunci awet muda banyak membaca alquran sebaik bacaan adalah alquran beribu keutamaan dlm membaca alquran seti</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['gunakanlah', 'waktu', 'dan', 'kesempatan', 'sebaik', 'mungkin']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'banyak', 'membaca', 'alquran', 'sebaik', 'bacaan', 'adalah', 'alquran', 'beribu', 'keutamaan', 'dlm', 'membaca', 'alquran', 'seti']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'banyak', 'membaca', 'alquran', 'sebaik', 'bacaan', 'adalah', 'alquran', 'beribu', 'keutamaan', 'dalam', 'membaca', 'alquran', 'seti']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['gunakanlah', 'kesempatan']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['guna', 'sempat']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'membaca', 'alquran', 'bacaan', 'alquran', 'beribu', 'keutamaan', 'membaca', 'alquran', 'seti']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'baca', 'alquran', 'baca', 'alquran', 'ibu', 'utama', 'baca', 'alquran', 'seti']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16658</v>
+        <v>27427</v>
       </c>
       <c r="C16" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>perbedaan pendapat itu penting tetapi pertentangan dan terpecah belahan adalah sebuah malapetaka gus dur xi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['perbedaan', 'pendapat', 'itu', 'penting', 'tetapi', 'pertentangan', 'dan', 'terpecah', 'belahan', 'adalah', 'sebuah', 'malapetaka', 'gus', 'dur', 'xi']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['perbedaan', 'pendapat', 'itu', 'penting', 'tetapi', 'pertentangan', 'dan', 'terpecah', 'belahan', 'adalah', 'sebuah', 'malapetaka', 'gus', 'dur', 'xi']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['perbedaan', 'pendapat', 'pertentangan', 'terpecah', 'belahan', 'malapetaka', 'gus', 'dur', 'xi']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['beda', 'dapat', 'tentang', 'pecah', 'bahan', 'malapetaka', 'gus', 'dur', 'xi']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16659</v>
+        <v>27428</v>
       </c>
       <c r="C17" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt fre naahh perilaku kita yang sangat penting</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'fre', 'naahh', 'perilaku', 'kita', 'yang', 'sangat', 'penting']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'fre', 'nah', 'perilaku', 'kita', 'yang', 'sangat', 'penting']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fre', 'perilaku']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['fre', 'perilaku']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16660</v>
+        <v>27429</v>
       </c>
       <c r="C18" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt agama datang bukan untuk menangmenangan tapi untuk mengajarkan kita agar bisa mengalahkan diri sendiri muhammad nur</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'agama', 'datang', 'bukan', 'untuk', 'menangmenangan', 'tapi', 'untuk', 'mengajarkan', 'kita', 'agar', 'bisa', 'mengalahkan', 'diri', 'sendiri', 'muhammad', 'nur']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'agama', 'datang', 'bukan', 'untuk', 'menangmenangan', 'tapi', 'untuk', 'mengajarkan', 'kita', 'agar', 'bisa', 'mengalahkan', 'diri', 'sendiri', 'muhammad', 'nur']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['agama', 'menangmenangan', 'mengajarkan', 'mengalahkan', 'muhammad', 'nur']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['agama', 'menangmenangan', 'ajar', 'kalah', 'muhammad', 'nur']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16661</v>
+        <v>27430</v>
       </c>
       <c r="C19" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt asma kunci awet muda hindari permusuhan jangan menganggap orang yang berbeda pendapat sebagai lawan karena sesungguhnya dia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'jangan', 'menganggap', 'orang', 'yang', 'berbeda', 'pendapat', 'sebagai', 'lawan', 'karena', 'sesungguhnya', 'dia']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'jangan', 'menganggap', 'orang', 'yang', 'berbeda', 'pendapat', 'sebagai', 'lawan', 'karena', 'sesungguhnya', 'dia']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'menganggap', 'orang', 'berbeda', 'pendapat', 'lawan', 'sesungguhnya']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'hindar', 'musuh', 'anggap', 'orang', 'beda', 'dapat', 'lawan', 'sungguh']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16662</v>
+        <v>27431</v>
       </c>
       <c r="C20" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt catlea sudah layaknya yg memiliki berbagi kpd yg tidak memiliki</t>
+          <t>rt asma orang tua yang baik itu melibatkan anaknya dalam laku kebaikan menitipkan pahala shadaqahnya serta menyebutnya dalam doa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'catlea', 'sudah', 'layaknya', 'yg', 'memiliki', 'berbagi', 'kpd', 'yg', 'tidak', 'memiliki']</t>
+          <t>['rt', 'asma', 'orang', 'tua', 'yang', 'baik', 'itu', 'melibatkan', 'anaknya', 'dalam', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'serta', 'menyebutnya', 'dalam', 'doa']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'asma', 'orang', 'tua', 'yang', 'baik', 'itu', 'melibatkan', 'anaknya', 'dalam', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'serta', 'menyebutnya', 'dalam', 'doa']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['catlea', 'layaknya', 'memiliki', 'berbagi', 'kpd', 'memiliki']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['catlea', 'layak', 'milik', 'bagi', 'kpd', 'milik']</t>
+          <t>['asma', 'orang', 'tua', 'melibatkan', 'anaknya', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'menyebutnya', 'doa']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['asma', 'orang', 'tua', 'libat', 'anak', 'laku', 'baik', 'titip', 'pahala', 'shadaqahnya', 'sebut', 'doa']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16663</v>
+        <v>27432</v>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt janganlah engkau mencari kehidupan hanya untuk makan akan tetapi carilah makan agar engkau dapat hidup sayyidina</t>
+          <t>rt in the very heart of toulouse raise public awareness for the liberation of palestinian students and the boy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'janganlah', 'engkau', 'mencari', 'kehidupan', 'hanya', 'untuk', 'makan', 'akan', 'tetapi', 'carilah', 'makan', 'agar', 'engkau', 'dapat', 'hidup', 'sayyidina']</t>
+          <t>['rt', 'in', 'the', 'very', 'heart', 'of', 'toulouse', 'raise', 'public', 'awareness', 'for', 'the', 'liberation', 'of', 'palestinian', 'students', 'and', 'the', 'boy']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'in', 'the', 'sangat', 'heart', 'of', 'toulouse', 'raise', 'publik', 'awareness', 'for', 'the', 'liberalisasi', 'of', 'palestinian', 'students', 'and', 'the', 'boy']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['engkau', 'mencari', 'kehidupan', 'makan', 'carilah', 'makan', 'engkau', 'hidup', 'sayyidina']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['engkau', 'cari', 'hidup', 'makan', 'cari', 'makan', 'engkau', 'hidup', 'sayyidina']</t>
+          <t>['in', 'the', 'heart', 'of', 'toulouse', 'raise', 'publik', 'awareness', 'for', 'the', 'liberalisasi', 'of', 'palestinian', 'students', 'and', 'the', 'boy']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['in', 'the', 'heart', 'of', 'toulouse', 'raise', 'publik', 'awareness', 'for', 'the', 'liberalisasi', 'of', 'palestinian', 'students', 'and', 'the', 'boy']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16664</v>
+        <v>27433</v>
       </c>
       <c r="C22" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt aku tidak pernah melihat adanya kenikmatan yang berlimpah ruah kecuali di sana ada hak yang terabaikan tiap kenikmata</t>
+          <t>rt dalam hening dan sepi kita menyelam ke lubuk hati merenungkan karunia hidup dari sang pencipta maka meluruhlah amarah den</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'aku', 'tidak', 'pernah', 'melihat', 'adanya', 'kenikmatan', 'yang', 'berlimpah', 'ruah', 'kecuali', 'di', 'sana', 'ada', 'hak', 'yang', 'terabaikan', 'tiap', 'kenikmata']</t>
+          <t>['rt', 'dalam', 'hening', 'dan', 'sepi', 'kita', 'menyelam', 'ke', 'lubuk', 'hati', 'merenungkan', 'karunia', 'hidup', 'dari', 'sang', 'pencipta', 'maka', 'meluruhlah', 'amarah', 'den']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'hening', 'dan', 'sepi', 'kita', 'menyelam', 'ke', 'lubuk', 'hati', 'merenungkan', 'karunia', 'hidup', 'dari', 'sang', 'pencipta', 'maka', 'meluruhlah', 'amarah', 'den']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['kenikmatan', 'berlimpah', 'ruah', 'kecuali', 'hak', 'terabaikan', 'kenikmata']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['nikmat', 'limpah', 'ruah', 'kecuali', 'hak', 'abai', 'kenikmata']</t>
+          <t>['hening', 'sepi', 'menyelam', 'lubuk', 'hati', 'merenungkan', 'karunia', 'hidup', 'sang', 'pencipta', 'meluruhlah', 'amarah', 'den']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['hening', 'sepi', 'selam', 'lubuk', 'hati', 'renung', 'karunia', 'hidup', 'sang', 'cipta', 'luruh', 'amarah', 'den']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16665</v>
+        <v>27434</v>
       </c>
       <c r="C23" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt asma lebih baik engkau menanggung kekalahan sedang engkau sebagai orang yang adil daripada engkau memilih menang dalam keadaan</t>
+          <t>rt jangan dikira karena kecil dan ringan perbuatan kita dibiarkan begitu saja apalagi jika itu perbuatan yg berat dan besar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'lebih', 'baik', 'engkau', 'menanggung', 'kekalahan', 'sedang', 'engkau', 'sebagai', 'orang', 'yang', 'adil', 'daripada', 'engkau', 'memilih', 'menang', 'dalam', 'keadaan']</t>
+          <t>['rt', 'jangan', 'dikira', 'karena', 'kecil', 'dan', 'ringan', 'perbuatan', 'kita', 'dibiarkan', 'begitu', 'saja', 'apalagi', 'jika', 'itu', 'perbuatan', 'yg', 'berat', 'dan', 'besar']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jangan', 'dikira', 'karena', 'kecil', 'dan', 'ringan', 'perbuatan', 'kita', 'dibiarkan', 'begitu', 'saja', 'apalagi', 'jika', 'itu', 'perbuatan', 'yang', 'berat', 'dan', 'besar']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['asma', 'engkau', 'menanggung', 'kekalahan', 'engkau', 'orang', 'adil', 'engkau', 'memilih', 'menang']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['asma', 'engkau', 'tanggung', 'kalah', 'engkau', 'orang', 'adil', 'engkau', 'pilih', 'menang']</t>
+          <t>['ringan', 'perbuatan', 'dibiarkan', 'perbuatan', 'berat']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['ringan', 'buat', 'biar', 'buat', 'berat']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16666</v>
+        <v>27435</v>
       </c>
       <c r="C24" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt khadijah janganlah engkau mengecam iblis secara terangterangan sementara engkau adalah temannya dalam kesunyian ali bin </t>
+          <t>rt hiburlah hatimu siramilah ia dengan percikan hikmah seperti halnya fisik hati juga merasakan letih ali bin abi thalib</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'janganlah', 'engkau', 'mengecam', 'iblis', 'secara', 'terangterangan', 'sementara', 'engkau', 'adalah', 'temannya', 'dalam', 'kesunyian', 'ali', 'bin']</t>
+          <t>['rt', 'hiburlah', 'hatimu', 'siramilah', 'ia', 'dengan', 'percikan', 'hikmah', 'seperti', 'halnya', 'fisik', 'hati', 'juga', 'merasakan', 'letih', 'ali', 'bin', 'abi', 'thalib']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'hiburlah', 'hatimu', 'siramilah', 'ia', 'dengan', 'percikan', 'hikmah', 'seperti', 'halnya', 'fisik', 'hati', 'juga', 'merasakan', 'letih', 'ali', 'bin', 'abi', 'thalib']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['khadijah', 'engkau', 'mengecam', 'iblis', 'terangterangan', 'engkau', 'temannya', 'kesunyian', 'ali', 'bin']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['khadijah', 'engkau', 'kecam', 'iblis', 'terangterangan', 'engkau', 'teman', 'sunyi', 'ali', 'bin']</t>
+          <t>['hiburlah', 'hatimu', 'siramilah', 'percikan', 'hikmah', 'halnya', 'fisik', 'hati', 'merasakan', 'letih', 'ali', 'bin', 'abi', 'thalib']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['hibur', 'hati', 'siram', 'percik', 'hikmah', 'hal', 'fisik', 'hati', 'rasa', 'letih', 'ali', 'bin', 'abi', 'thalib']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16667</v>
+        <v>27436</v>
       </c>
       <c r="C25" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>janganlah engkau mencari kehidupan hanya untuk makan akan tetapi carilah makan agar engkau dapat hidup sayyi</t>
+          <t>rt khadijah jangan mudah menolak cinta nanti bisa sulit jodohmu kh ahmad asrori alishaqy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['janganlah', 'engkau', 'mencari', 'kehidupan', 'hanya', 'untuk', 'makan', 'akan', 'tetapi', 'carilah', 'makan', 'agar', 'engkau', 'dapat', 'hidup', 'sayyi']</t>
+          <t>['rt', 'khadijah', 'jangan', 'mudah', 'menolak', 'cinta', 'nanti', 'bisa', 'sulit', 'jodohmu', 'kh', 'ahmad', 'asrori', 'alishaqy']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'jangan', 'mudah', 'menolak', 'cinta', 'nanti', 'bisa', 'sulit', 'jodohmu', 'kh', 'ahmad', 'asrori', 'alishaqy']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['engkau', 'mencari', 'kehidupan', 'makan', 'carilah', 'makan', 'engkau', 'hidup', 'sayyi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['engkau', 'cari', 'hidup', 'makan', 'cari', 'makan', 'engkau', 'hidup', 'sayyi']</t>
+          <t>['khadijah', 'mudah', 'menolak', 'cinta', 'sulit', 'jodohmu', 'kh', 'ahmad', 'asrori', 'alishaqy']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['khadijah', 'mudah', 'tolak', 'cinta', 'sulit', 'jodoh', 'kh', 'ahmad', 'asrori', 'alishaqy']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16668</v>
+        <v>27437</v>
       </c>
       <c r="C26" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ada juga yang ketika diberi kesusahan lari ke pasangan orang</t>
+          <t>rt di langit ada syurga di bumi ada ibu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['ada', 'juga', 'yang', 'ketika', 'diberi', 'kesusahan', 'lari', 'ke', 'pasangan', 'orang']</t>
+          <t>['rt', 'di', 'langit', 'ada', 'syurga', 'di', 'bumi', 'ada', 'ibu']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'di', 'langit', 'ada', 'syurga', 'di', 'bumi', 'ada', 'ibu']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kesusahan', 'lari', 'pasangan', 'orang']</t>
+          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['susah', 'lari', 'pasang', 'orang']</t>
+          <t>['langit', 'syurga', 'bumi']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['langit', 'syurga', 'bumi']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16669</v>
+        <v>27438</v>
       </c>
       <c r="C27" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>aku tidak pernah melihat adanya kenikmatan yang berlimpah ruah kecuali di sana ada hak yang terabaikan tiap keni</t>
+          <t>rt asma kita banyak kehilangan alim ulama padahal penggantinya tidak ada dan kalaupun ada kualitasnya tidak sama kh abdurra</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['aku', 'tidak', 'pernah', 'melihat', 'adanya', 'kenikmatan', 'yang', 'berlimpah', 'ruah', 'kecuali', 'di', 'sana', 'ada', 'hak', 'yang', 'terabaikan', 'tiap', 'keni']</t>
+          <t>['rt', 'asma', 'kita', 'banyak', 'kehilangan', 'alim', 'ulama', 'padahal', 'penggantinya', 'tidak', 'ada', 'dan', 'kalaupun', 'ada', 'kualitasnya', 'tidak', 'sama', 'kh', 'abdurra']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kita', 'banyak', 'kehilangan', 'alim', 'ulama', 'padahal', 'penggantinya', 'tidak', 'ada', 'dan', 'kalaupun', 'ada', 'kualitasnya', 'tidak', 'sama', 'kh', 'abdurra']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['kenikmatan', 'berlimpah', 'ruah', 'kecuali', 'hak', 'terabaikan', 'keni']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['nikmat', 'limpah', 'ruah', 'kecuali', 'hak', 'abai', 'ken']</t>
+          <t>['asma', 'kehilangan', 'alim', 'ulama', 'penggantinya', 'kualitasnya', 'kh', 'abdurra']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['asma', 'hilang', 'alim', 'ulama', 'ganti', 'kualitas', 'kh', 'abdurra']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16670</v>
+        <v>27439</v>
       </c>
       <c r="C28" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt bersholawat kepada nabi muhammad saww dan ahlul bayt nya memiliki keutamaan yang bisa menghapus dosadosa besar seyogy</t>
+          <t>rt khadijah bukan ketidakjelasan jalan yang dikhawatirkan dari dirimu yang dikhawatirkan adalah menangnya hawa nafsu atas dirimu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'bersholawat', 'kepada', 'nabi', 'muhammad', 'saww', 'dan', 'ahlul', 'bayt', 'nya', 'memiliki', 'keutamaan', 'yang', 'bisa', 'menghapus', 'dosadosa', 'besar', 'seyogy']</t>
+          <t>['rt', 'khadijah', 'bukan', 'ketidakjelasan', 'jalan', 'yang', 'dikhawatirkan', 'dari', 'dirimu', 'yang', 'dikhawatirkan', 'adalah', 'menangnya', 'hawa', 'nafsu', 'atas', 'dirimu']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'bukan', 'ketidakjelasan', 'jalan', 'yang', 'dikhawatirkan', 'dari', 'dirimu', 'yang', 'dikhawatirkan', 'adalah', 'menangnya', 'hawa', 'nafsu', 'atas', 'dirimu']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['bersholawat', 'nabi', 'muhammad', 'saww', 'ahlul', 'bayt', 'memiliki', 'keutamaan', 'menghapus', 'dosadosa', 'seyogy']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['bersholawat', 'nabi', 'muhammad', 'saww', 'ahlul', 'bayt', 'milik', 'utama', 'hapus', 'dosadosa', 'seyogy']</t>
+          <t>['khadijah', 'ketidakjelasan', 'jalan', 'dikhawatirkan', 'dirimu', 'dikhawatirkan', 'menangnya', 'hawa', 'nafsu', 'dirimu']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['khadijah', 'ketidakjelasan', 'jalan', 'khawatir', 'diri', 'khawatir', 'menang', 'hawa', 'nafsu', 'diri']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16671</v>
+        <v>27440</v>
       </c>
       <c r="C29" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt asma santri itu harus tirakat sebab kalau mau tirakat ilmunya bakal bercahaya bisa bermanfaat untuk masyarakat kalau mengaj</t>
+          <t>rt niat yang baik dan kuat merupakan pendorong agar kita bisa meraih apa yang kita citacitakan maulana habib luthfi bi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'santri', 'itu', 'harus', 'tirakat', 'sebab', 'kalau', 'mau', 'tirakat', 'ilmunya', 'bakal', 'bercahaya', 'bisa', 'bermanfaat', 'untuk', 'masyarakat', 'kalau', 'mengaj']</t>
+          <t>['rt', 'niat', 'yang', 'baik', 'dan', 'kuat', 'merupakan', 'pendorong', 'agar', 'kita', 'bisa', 'meraih', 'apa', 'yang', 'kita', 'citacitakan', 'maulana', 'habib', 'luthfi', 'bi']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'niat', 'yang', 'baik', 'dan', 'kuat', 'merupakan', 'pendorong', 'agar', 'kita', 'bisa', 'meraih', 'apa', 'yang', 'kita', 'citacitakan', 'maulana', 'habib', 'luthfi', 'bi']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['asma', 'santri', 'tirakat', 'tirakat', 'ilmunya', 'bercahaya', 'bermanfaat', 'masyarakat', 'mengaj']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['asma', 'santri', 'tirakat', 'tirakat', 'ilmu', 'cahaya', 'manfaat', 'masyarakat', 'mengaj']</t>
+          <t>['niat', 'kuat', 'pendorong', 'meraih', 'citacitakan', 'maulana', 'habib', 'luthfi', 'bi']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['niat', 'kuat', 'dorong', 'raih', 'citacitakan', 'maulana', 'habib', 'luthfi', 'bi']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16672</v>
+        <v>27441</v>
       </c>
       <c r="C30" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt khadijah lemah lembut merupakan pakaiannya orang alim pandai maka janganlah sampai kamu tidak memakainnya sayyidina muh</t>
+          <t>niat yang baik dan kuat merupakan pendorong agar kita bisa meraih apa yang kita citacitakan maulana habib luth</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'lemah', 'lembut', 'merupakan', 'pakaiannya', 'orang', 'alim', 'pandai', 'maka', 'janganlah', 'sampai', 'kamu', 'tidak', 'memakainnya', 'sayyidina', 'muh']</t>
+          <t>['niat', 'yang', 'baik', 'dan', 'kuat', 'merupakan', 'pendorong', 'agar', 'kita', 'bisa', 'meraih', 'apa', 'yang', 'kita', 'citacitakan', 'maulana', 'habib', 'luth']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['niat', 'yang', 'baik', 'dan', 'kuat', 'merupakan', 'pendorong', 'agar', 'kita', 'bisa', 'meraih', 'apa', 'yang', 'kita', 'citacitakan', 'maulana', 'habib', 'lut']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['khadijah', 'lemah', 'lembut', 'pakaiannya', 'orang', 'alim', 'pandai', 'memakainnya', 'sayyidina', 'muh']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['khadijah', 'lemah', 'lembut', 'pakai', 'orang', 'alim', 'pandai', 'memakainnya', 'sayyidina', 'muh']</t>
+          <t>['niat', 'kuat', 'pendorong', 'meraih', 'citacitakan', 'maulana', 'habib', 'lut']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['niat', 'kuat', 'dorong', 'raih', 'citacitakan', 'maulana', 'habib', 'lut']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16673</v>
+        <v>27442</v>
       </c>
       <c r="C31" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt ada satu malaikat yang tahu jumlah tetes air hujan yang turun kebumi tapi dia tidak mampu untuk menghitung pahala bersho</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'ada', 'satu', 'malaikat', 'yang', 'tahu', 'jumlah', 'tetes', 'air', 'hujan', 'yang', 'turun', 'kebumi', 'tapi', 'dia', 'tidak', 'mampu', 'untuk', 'menghitung', 'pahala', 'bersho']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['malaikat', 'tetes', 'air', 'hujan', 'turun', 'kebumi', 'menghitung', 'pahala', 'bersho']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['malaikat', 'tetes', 'air', 'hujan', 'turun', 'bum', 'hitung', 'pahala', 'bersho']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16674</v>
+        <v>27443</v>
       </c>
       <c r="C32" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt jangan kau cari nilai dirimu dalam penilaian orang lain carilah nilai dirimu dalam hatimu sendiri ari</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'kau', 'cari', 'nilai', 'dirimu', 'dalam', 'penilaian', 'orang', 'lain', 'carilah', 'nilai', 'dirimu', 'dalam', 'hatimu', 'sendiri', 'ari']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['kau', 'cari', 'nilai', 'dirimu', 'penilaian', 'orang', 'carilah', 'nilai', 'dirimu', 'hatimu', 'ari']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['kau', 'cari', 'nilai', 'diri', 'nilai', 'orang', 'cari', 'nilai', 'diri', 'hati', 'ari']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16675</v>
+        <v>27444</v>
       </c>
       <c r="C33" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt mantap</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'mantap']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['mantap']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['mantap']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16676</v>
+        <v>27445</v>
       </c>
       <c r="C34" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt catlea nah jan cepat nilai org</t>
+          <t>rt warga net heboh lihat jungkook bts main drum sambil nyanyi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'catlea', 'nah', 'jan', 'cepat', 'nilai', 'org']</t>
+          <t>['rt', 'warga', 'net', 'heboh', 'lihat', 'jungkook', 'bts', 'main', 'drum', 'sambil', 'nyanyi']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'warga', 'net', 'heboh', 'lihat', 'jungkook', 'bts', 'main', 'drum', 'sambil', 'nyanyi']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['catlea', 'jan', 'cepat', 'nilai', 'org']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['catlea', 'jan', 'cepat', 'nilai', 'org']</t>
+          <t>['warga', 'net', 'heboh', 'lihat', 'jungkook', 'bts', 'main', 'drum', 'nyanyi']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['warga', 'net', 'heboh', 'lihat', 'jungkook', 'bts', 'main', 'drum', 'nyanyi']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16677</v>
+        <v>27446</v>
       </c>
       <c r="C35" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt fre naaaah nurutin orang mah ga ada benernya kita</t>
+          <t>rt aku memilih mencintaimu dalam diam sebab dalam diam aku tak menemukan penolakan jalaluddin elrumi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'fre', 'naaaah', 'nurutin', 'orang', 'mah', 'ga', 'ada', 'benernya', 'kita']</t>
+          <t>['rt', 'aku', 'memilih', 'mencintaimu', 'dalam', 'diam', 'sebab', 'dalam', 'diam', 'aku', 'tak', 'menemukan', 'penolakan', 'jalaluddin', 'elrumi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'aku', 'memilih', 'mencintaimu', 'dalam', 'diam', 'sebab', 'dalam', 'diam', 'aku', 'tak', 'menemukan', 'penolakan', 'jalaluddin', 'elrumi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['fre', 'naaaah', 'nurutin', 'orang', 'mah', 'benernya']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['fre', 'naaaah', 'nurutin', 'orang', 'mah', 'benernya']</t>
+          <t>['memilih', 'mencintaimu', 'diam', 'diam', 'menemukan', 'penolakan', 'jalaluddin', 'elrumi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['pilih', 'cinta', 'diam', 'diam', 'temu', 'tolak', 'jalaluddin', 'elrumi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16678</v>
+        <v>27447</v>
       </c>
       <c r="C36" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt akhirnya ayus sabyan klarifikasi akui juga minta maaf telah khilaf</t>
+          <t>rt cukup dgn memberi tauladan dgn tindakan bukan dgn memaksa apalagi sampai marahmarah atta brandon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'akhirnya', 'ayus', 'sabyan', 'klarifikasi', 'akui', 'juga', 'minta', 'maaf', 'telah', 'khilaf']</t>
+          <t>['rt', 'cukup', 'dgn', 'memberi', 'tauladan', 'dgn', 'tindakan', 'bukan', 'dgn', 'memaksa', 'apalagi', 'sampai', 'marahmarah', 'atta', 'brandon']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'cukup', 'dengan', 'memberi', 'tauladan', 'dengan', 'tindakan', 'bukan', 'dengan', 'memaksa', 'apalagi', 'sampai', 'marahmarah', 'atta', 'brandon']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['ayus', 'sabyan', 'klarifikasi', 'akui', 'maaf', 'khilaf']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['ayus', 'sabyan', 'klarifikasi', 'aku', 'maaf', 'khilaf']</t>
+          <t>['tauladan', 'tindakan', 'memaksa', 'marahmarah', 'atta', 'brandon']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['tauladan', 'tindak', 'paksa', 'marahmarah', 'atta', 'brandon']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16679</v>
+        <v>27448</v>
       </c>
       <c r="C37" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt khadijah makanya beragama itu harus nyaman dengan nyaman ini diharapkan orang tidak butuh nyaman lewat jalur yang tidak benar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'khadijah', 'makanya', 'beragama', 'itu', 'harus', 'nyaman', 'dengan', 'nyaman', 'ini', 'diharapkan', 'orang', 'tidak', 'butuh', 'nyaman', 'lewat', 'jalur', 'yang', 'tidak', 'benar']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'makanya', 'beragama', 'itu', 'harus', 'nyaman', 'dengan', 'nyaman', 'ini', 'diharapkan', 'orang', 'tidak', 'butuh', 'nyaman', 'lewat', 'jalur', 'yang', 'tidak', 'benar']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khadijah', 'beragama', 'nyaman', 'nyaman', 'diharapkan', 'orang', 'butuh', 'nyaman', 'jalur']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['khadijah', 'agama', 'nyaman', 'nyaman', 'harap', 'orang', 'butuh', 'nyaman', 'jalur']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16680</v>
+        <v>27449</v>
       </c>
       <c r="C38" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt khadijah kalau itu memang rezekimu pasti akan datang kepadamu kalau itu bukan rezekimu kau kejarpun tidak akan pernah samp</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'khadijah', 'kalau', 'itu', 'memang', 'rezekimu', 'pasti', 'akan', 'datang', 'kepadamu', 'kalau', 'itu', 'bukan', 'rezekimu', 'kau', 'kejarpun', 'tidak', 'akan', 'pernah', 'samp']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'kalau', 'itu', 'memang', 'rezekimu', 'pasti', 'akan', 'datang', 'kepadamu', 'kalau', 'itu', 'bukan', 'rezekimu', 'kamu', 'kejarpun', 'tidak', 'akan', 'pernah', 'samp']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khadijah', 'rezekimu', 'kepadamu', 'rezekimu', 'kejarpun', 'samp']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['khadijah', 'rezeki', 'kepada', 'rezeki', 'kejar', 'samp']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16681</v>
+        <v>27450</v>
       </c>
       <c r="C39" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt asma kunci awet muda mudah memaafkan jangan merasa malas dan susah dalam memaafkan kesalahan orang lain karena terdapat kel</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'jangan', 'merasa', 'malas', 'dan', 'susah', 'dalam', 'memaafkan', 'kesalahan', 'orang', 'lain', 'karena', 'terdapat', 'kel']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'jangan', 'merasa', 'malas', 'dan', 'susah', 'dalam', 'memaafkan', 'kesalahan', 'orang', 'lain', 'karena', 'terdapat', 'keluarga']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'malas', 'susah', 'memaafkan', 'kesalahan', 'orang', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'mudah', 'maaf', 'malas', 'susah', 'maaf', 'salah', 'orang', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16682</v>
+        <v>27451</v>
       </c>
       <c r="C40" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt imam ali as ketahuilah bahwa lisan itu</t>
+          <t xml:space="preserve">orang non muslim tidak membaca quran mereka tidak membaca hadist yang mereka baca adalah dirimu maka jadilah </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'imam', 'ali', 'as', 'ketahuilah', 'bahwa', 'lisan', 'itu']</t>
+          <t>['orang', 'non', 'muslim', 'tidak', 'membaca', 'quran', 'mereka', 'tidak', 'membaca', 'hadist', 'yang', 'mereka', 'baca', 'adalah', 'dirimu', 'maka', 'jadilah']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['orang', 'non', 'muslim', 'tidak', 'membaca', 'alquran', 'mereka', 'tidak', 'membaca', 'hadis', 'yang', 'mereka', 'baca', 'adalah', 'dirimu', 'maka', 'jadilah']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'as', 'ketahuilah', 'lisan']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'as', 'tahu', 'lisan']</t>
+          <t>['orang', 'non', 'muslim', 'membaca', 'alquran', 'membaca', 'hadis', 'baca', 'dirimu']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['orang', 'non', 'muslim', 'baca', 'alquran', 'baca', 'hadis', 'baca', 'diri']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16683</v>
+        <v>27452</v>
       </c>
       <c r="C41" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt haditstentanglisan jagalah lisanmu rasulullah saww</t>
+          <t>lihatlah keburukan di dalam diri sendiri dan lihatlah kebaikan di dalam diri orang lain ali bin abi thalib aurel atta momo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'haditstentanglisan', 'jagalah', 'lisanmu', 'rasulullah', 'saww']</t>
+          <t>['lihatlah', 'keburukan', 'di', 'dalam', 'diri', 'sendiri', 'dan', 'lihatlah', 'kebaikan', 'di', 'dalam', 'diri', 'orang', 'lain', 'ali', 'bin', 'abi', 'thalib', 'aurel', 'atta', 'momo']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['lihatlah', 'keburukan', 'di', 'dalam', 'diri', 'sendiri', 'dan', 'lihatlah', 'kebaikan', 'di', 'dalam', 'diri', 'orang', 'lain', 'ali', 'bin', 'abi', 'thalib', 'aurel', 'atta', 'momo']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['haditstentanglisan', 'jagalah', 'lisanmu', 'rasulullah', 'saww']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['haditstentanglisan', 'jaga', 'lisan', 'rasulullah', 'saww']</t>
+          <t>['lihatlah', 'keburukan', 'lihatlah', 'kebaikan', 'orang', 'ali', 'bin', 'abi', 'thalib', 'aurel', 'atta', 'momo']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['lihat', 'keburu', 'lihat', 'baik', 'orang', 'ali', 'bin', 'abi', 'thalib', 'aurel', 'atta', 'momo']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16684</v>
+        <v>27453</v>
       </c>
       <c r="C42" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt bahaya dari banyak tidur imam jafar asshodiq as berpesan</t>
+          <t>rt is  wonderful paradise</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'bahaya', 'dari', 'banyak', 'tidur', 'imam', 'jafar', 'asshodiq', 'as', 'berpesan']</t>
+          <t>['rt', 'is', 'wonderful', 'paradise']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'is', 'wonderful', 'paradise']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['bahaya', 'tidur', 'imam', 'jafar', 'asshodiq', 'as', 'berpesan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['bahaya', 'tidur', 'imam', 'jafar', 'asshodiq', 'as', 'pesan']</t>
+          <t>['is', 'wonderful', 'paradise']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['is', 'wonderful', 'paradise']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16685</v>
+        <v>27454</v>
       </c>
       <c r="C43" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt jangan menuntut tuhan lantaran permintaanmu terlambat dikabulkan namun tuntunlah dirimu lantaran terlambat melaksanak</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'jangan', 'menuntut', 'tuhan', 'lantaran', 'permintaanmu', 'terlambat', 'dikabulkan', 'namun', 'tuntunlah', 'dirimu', 'lantaran', 'terlambat', 'melaksanak']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'jangan', 'menuntut', 'tuhan', 'lantaran', 'permintaanmu', 'terlambat', 'dikabulkan', 'namun', 'tuntunlah', 'dirimu', 'lantaran', 'terlambat', 'melaksanak']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['menuntut', 'tuhan', 'lantaran', 'permintaanmu', 'terlambat', 'dikabulkan', 'tuntunlah', 'dirimu', 'lantaran', 'terlambat', 'melaksanak']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['tuntut', 'tuhan', 'lantar', 'minta', 'lambat', 'kabul', 'tuntun', 'diri', 'lantar', 'lambat', 'melaksanak']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16686</v>
+        <v>27455</v>
       </c>
       <c r="C44" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt iran</t>
+          <t>rt asma kunci awet muda tidak dengki amp iri hati jangan iri amp dengki dengan kejayaan dan kesuksesan temanteman anda karena set</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'iran']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'dengki', 'amp', 'iri', 'hati', 'jangan', 'iri', 'amp', 'dengki', 'dengan', 'kejayaan', 'dan', 'kesuksesan', 'temanteman', 'anda', 'karena', 'set']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'dengki', 'amp', 'iri', 'hati', 'jangan', 'iri', 'amp', 'dengki', 'dengan', 'kejayaan', 'dan', 'kesuksesan', 'temanteman', 'anda', 'karena', 'set']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['iran']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['iran']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'dengki', 'iri', 'hati', 'iri', 'dengki', 'kejayaan', 'kesuksesan', 'temanteman', 'set']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'dengki', 'iri', 'hati', 'iri', 'dengki', 'jaya', 'sukses', 'temanteman', 'set']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16687</v>
+        <v>27456</v>
       </c>
       <c r="C45" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt asma bidah terbesar dalam hidup ini adalah cinta dunia karena nabi saw tidak pernah melakukan itu dan tidak pernah mengajark</t>
+          <t>jangan menuntut tuhan lantaran permintaanmu terlambat dikabulkan namun tuntunlah dirimu lantaran terlambat melak</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'bidah', 'terbesar', 'dalam', 'hidup', 'ini', 'adalah', 'cinta', 'dunia', 'karena', 'nabi', 'saw', 'tidak', 'pernah', 'melakukan', 'itu', 'dan', 'tidak', 'pernah', 'mengajark']</t>
+          <t>['jangan', 'menuntut', 'tuhan', 'lantaran', 'permintaanmu', 'terlambat', 'dikabulkan', 'namun', 'tuntunlah', 'dirimu', 'lantaran', 'terlambat', 'melak']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['jangan', 'menuntut', 'tuhan', 'lantaran', 'permintaanmu', 'terlambat', 'dikabulkan', 'namun', 'tuntunlah', 'dirimu', 'lantaran', 'terlambat', 'melak']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['asma', 'bidah', 'terbesar', 'hidup', 'cinta', 'dunia', 'nabi', 'saw', 'mengajark']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['asma', 'bidah', 'besar', 'hidup', 'cinta', 'dunia', 'nabi', 'saw', 'mengajark']</t>
+          <t>['menuntut', 'tuhan', 'lantaran', 'permintaanmu', 'terlambat', 'dikabulkan', 'tuntunlah', 'dirimu', 'lantaran', 'terlambat', 'melak']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['tuntut', 'tuhan', 'lantar', 'minta', 'lambat', 'kabul', 'tuntun', 'diri', 'lantar', 'lambat', 'lak']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16688</v>
+        <v>27457</v>
       </c>
       <c r="C46" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">ada satu malaikat yang tahu jumlah tetes air hujan yang turun kebumi tapi dia tidak mampu untuk menghitung pahala </t>
+          <t>rt khadijah jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi ba</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['ada', 'satu', 'malaikat', 'yang', 'tahu', 'jumlah', 'tetes', 'air', 'hujan', 'yang', 'turun', 'kebumi', 'tapi', 'dia', 'tidak', 'mampu', 'untuk', 'menghitung', 'pahala']</t>
+          <t>['rt', 'khadijah', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'ba']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'ba']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['malaikat', 'tetes', 'air', 'hujan', 'turun', 'kebumi', 'menghitung', 'pahala']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['malaikat', 'tetes', 'air', 'hujan', 'turun', 'bum', 'hitung', 'pahala']</t>
+          <t>['khadijah', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi', 'ba']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['khadijah', 'jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung', 'ba']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16689</v>
+        <v>27458</v>
       </c>
       <c r="C47" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt khadijah hiduplah kalian dgn baik bersama seluruh manusia sehingga di saat kalian hidup bersama mereka mereka akan menyayangi</t>
+          <t>rt asma kunci awet muda berdoa tanpa sepengetahuan mereka jangan lelah dan jemu jemu selalu mendoakan sahabatsahabat kita untuk</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'hiduplah', 'kalian', 'dgn', 'baik', 'bersama', 'seluruh', 'manusia', 'sehingga', 'di', 'saat', 'kalian', 'hidup', 'bersama', 'mereka', 'mereka', 'akan', 'menyayangi']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat', 'kita', 'untuk']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat', 'kita', 'untuk']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['khadijah', 'hiduplah', 'manusia', 'hidup', 'menyayangi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['khadijah', 'hidup', 'manusia', 'hidup', 'sayang']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'berdoa', 'sepengetahuan', 'lelah', 'jemu', 'jemu', 'mendoakan', 'sahabatsahabat']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'doa', 'tahu', 'lelah', 'jemu', 'jemu', 'doa', 'sahabatsahabat']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16690</v>
+        <v>27459</v>
       </c>
       <c r="C48" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">bersholawat kepada nabi muhammad saww dan ahlul bayt nya memiliki keutamaan yang bisa menghapus dosadosa besar </t>
+          <t>rt khadijah kalau cinta itu berawal dari mata maka akan berakhir dengan air mata tetapi kalau cinta itu berawal dari hati samp</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['bersholawat', 'kepada', 'nabi', 'muhammad', 'saww', 'dan', 'ahlul', 'bayt', 'nya', 'memiliki', 'keutamaan', 'yang', 'bisa', 'menghapus', 'dosadosa', 'besar']</t>
+          <t>['rt', 'khadijah', 'kalau', 'cinta', 'itu', 'berawal', 'dari', 'mata', 'maka', 'akan', 'berakhir', 'dengan', 'air', 'mata', 'tetapi', 'kalau', 'cinta', 'itu', 'berawal', 'dari', 'hati', 'samp']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'kalau', 'cinta', 'itu', 'berawal', 'dari', 'mata', 'maka', 'akan', 'berakhir', 'dengan', 'air', 'mata', 'tetapi', 'kalau', 'cinta', 'itu', 'berawal', 'dari', 'hati', 'samp']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['bersholawat', 'nabi', 'muhammad', 'saww', 'ahlul', 'bayt', 'memiliki', 'keutamaan', 'menghapus', 'dosadosa']</t>
+          <t>&lt;FreqDist with 16 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['bersholawat', 'nabi', 'muhammad', 'saww', 'ahlul', 'bayt', 'milik', 'utama', 'hapus', 'dosadosa']</t>
+          <t>['khadijah', 'cinta', 'mata', 'air', 'mata', 'cinta', 'hati', 'samp']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['khadijah', 'cinta', 'mata', 'air', 'mata', 'cinta', 'hati', 'samp']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16691</v>
+        <v>27460</v>
       </c>
       <c r="C49" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>katakata baik keluar dari orang baik</t>
+          <t>rt asma hidup itu sejak lahir hingga mati kuliah tanpa bangku kh hamim djazuli fotonya rusia tangkap chaplin</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['katakata', 'baik', 'keluar', 'dari', 'orang', 'baik']</t>
+          <t>['rt', 'asma', 'hidup', 'itu', 'sejak', 'lahir', 'hingga', 'mati', 'kuliah', 'tanpa', 'bangku', 'kh', 'hamim', 'djazuli', 'fotonya', 'rusia', 'tangkap', 'chaplin']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'asma', 'hidup', 'itu', 'sejak', 'lahir', 'hingga', 'mati', 'kuliah', 'tanpa', 'bangku', 'kh', 'hamim', 'djazuli', 'fotonya', 'rusia', 'tangkap', 'chaplin']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['katakata', 'orang']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['katakata', 'orang']</t>
+          <t>['asma', 'hidup', 'lahir', 'mati', 'kuliah', 'bangku', 'kh', 'hamim', 'djazuli', 'fotonya', 'rusia', 'tangkap', 'chaplin']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['asma', 'hidup', 'lahir', 'mati', 'kuliah', 'bangku', 'kh', 'hamim', 'djazuli', 'foto', 'rusia', 'tangkap', 'chaplin']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16692</v>
+        <v>27461</v>
       </c>
       <c r="C50" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cintailah orang yang kau cinta dengan sewajarnya boleh jadi suatu hari dia menjadi orang yang kau benci dan benc</t>
+          <t xml:space="preserve">rt jika anda ingin tahu di mana hati anda lihatlah di mana pikiran anda pergi ketika sedang mengembara imam ali as </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['cintailah', 'orang', 'yang', 'kau', 'cinta', 'dengan', 'sewajarnya', 'boleh', 'jadi', 'suatu', 'hari', 'dia', 'menjadi', 'orang', 'yang', 'kau', 'benci', 'dan', 'benc']</t>
+          <t>['rt', 'jika', 'anda', 'ingin', 'tahu', 'di', 'mana', 'hati', 'anda', 'lihatlah', 'di', 'mana', 'pikiran', 'anda', 'pergi', 'ketika', 'sedang', 'mengembara', 'imam', 'ali', 'as']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jika', 'anda', 'ingin', 'tahu', 'di', 'mana', 'hati', 'anda', 'lihatlah', 'di', 'mana', 'pikiran', 'anda', 'pergi', 'ketika', 'sedang', 'mengembara', 'imam', 'ali', 'as']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['cintailah', 'orang', 'kau', 'cinta', 'sewajarnya', 'orang', 'kau', 'benci', 'benc']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['cinta', 'orang', 'kau', 'cinta', 'wajar', 'orang', 'kau', 'benci', 'benc']</t>
+          <t>['hati', 'lihatlah', 'pikiran', 'pergi', 'mengembara', 'imam', 'ali', 'as']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['hati', 'lihat', 'pikir', 'pergi', 'embara', 'imam', 'ali', 'as']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16693</v>
+        <v>27462</v>
       </c>
       <c r="C51" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt batrisyia yg lebih mengenalmu adalah dirimu sendiri</t>
+          <t xml:space="preserve">rt khadijah ketahuilah wahai kekasih manusia tidaklah diciptakan dengan mainmain ataupun serampangan namun diciptakan secara </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'batrisyia', 'yg', 'lebih', 'mengenalmu', 'adalah', 'dirimu', 'sendiri']</t>
+          <t>['rt', 'khadijah', 'ketahuilah', 'wahai', 'kekasih', 'manusia', 'tidaklah', 'diciptakan', 'dengan', 'mainmain', 'ataupun', 'serampangan', 'namun', 'diciptakan', 'secara']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'ketahuilah', 'wahai', 'kekasih', 'manusia', 'tidaklah', 'diciptakan', 'dengan', 'mainmain', 'ataupun', 'serampangan', 'namun', 'diciptakan', 'secara']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['batrisyia', 'mengenalmu', 'dirimu']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['batrisyia', 'kenal', 'diri']</t>
+          <t>['khadijah', 'ketahuilah', 'kekasih', 'manusia', 'diciptakan', 'mainmain', 'serampangan', 'diciptakan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['khadijah', 'tahu', 'kasih', 'manusia', 'cipta', 'mainmain', 'serampang', 'cipta']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16694</v>
+        <v>27463</v>
       </c>
       <c r="C52" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt yaps</t>
+          <t>jika anda ingin tahu di mana hati anda lihatlah di mana pikiran anda pergi ketika sedang mengembara imam ali as malam jumat</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'yaps']</t>
+          <t>['jika', 'anda', 'ingin', 'tahu', 'di', 'mana', 'hati', 'anda', 'lihatlah', 'di', 'mana', 'pikiran', 'anda', 'pergi', 'ketika', 'sedang', 'mengembara', 'imam', 'ali', 'as', 'malam', 'jumat']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['jika', 'anda', 'ingin', 'tahu', 'di', 'mana', 'hati', 'anda', 'lihatlah', 'di', 'mana', 'pikiran', 'anda', 'pergi', 'ketika', 'sedang', 'mengembara', 'imam', 'ali', 'as', 'malam', 'jumat']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['yaps']</t>
+          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['yaps']</t>
+          <t>['hati', 'lihatlah', 'pikiran', 'pergi', 'mengembara', 'imam', 'ali', 'as', 'malam', 'jumat']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['hati', 'lihat', 'pikir', 'pergi', 'embara', 'imam', 'ali', 'as', 'malam', 'jumat']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16695</v>
+        <v>27464</v>
       </c>
       <c r="C53" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt bismillah</t>
+          <t>rt perjalanan rasulullah saw yg berangkat dari bumi yg rendah menuju almuntaha adalah cerminan perjalanan hidup kita sebe</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'bismillah']</t>
+          <t>['rt', 'perjalanan', 'rasulullah', 'saw', 'yg', 'berangkat', 'dari', 'bumi', 'yg', 'rendah', 'menuju', 'almuntaha', 'adalah', 'cerminan', 'perjalanan', 'hidup', 'kita', 'sebe']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'perjalanan', 'rasulullah', 'saw', 'yang', 'berangkat', 'dari', 'bumi', 'yang', 'rendah', 'menuju', 'almuntaha', 'adalah', 'cerminan', 'perjalanan', 'hidup', 'kita', 'sebe']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['bismillah']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['bismillah']</t>
+          <t>['perjalanan', 'rasulullah', 'saw', 'berangkat', 'bumi', 'rendah', 'almuntaha', 'cerminan', 'perjalanan', 'hidup', 'sebe']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['jalan', 'rasulullah', 'saw', 'berangkat', 'bumi', 'rendah', 'almuntaha', 'cermin', 'jalan', 'hidup', 'sebe']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16696</v>
+        <v>27465</v>
       </c>
       <c r="C54" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt klo tuhan tukng ngolok mngkin dah bilang makanya jgn jauh dari aku suruh taat juga malah jadi orang gblk ya tuhan untun</t>
+          <t>rt khadijah sesungguhnya allah menciptakan wanita dari kelemahan amp aurat maka obatilah kelemahan mereka dengan diam amp tutupilah</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'klo', 'tuhan', 'tukng', 'ngolok', 'mngkin', 'dah', 'bilang', 'makanya', 'jgn', 'jauh', 'dari', 'aku', 'suruh', 'taat', 'juga', 'malah', 'jadi', 'orang', 'gblk', 'ya', 'tuhan', 'untun']</t>
+          <t>['rt', 'khadijah', 'sesungguhnya', 'allah', 'menciptakan', 'wanita', 'dari', 'kelemahan', 'amp', 'aurat', 'maka', 'obatilah', 'kelemahan', 'mereka', 'dengan', 'diam', 'amp', 'tutupilah']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'sesungguhnya', 'allah', 'menciptakan', 'wanita', 'dari', 'kelemahan', 'amp', 'aurat', 'maka', 'obatilah', 'kelemahan', 'mereka', 'dengan', 'diam', 'amp', 'tutupilah']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['tuhan', 'tukng', 'ngolok', 'mngkin', 'dah', 'suruh', 'taat', 'orang', 'gblk', 'tuhan', 'untun']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['tuhan', 'tukng', 'ngolok', 'mngkin', 'dah', 'suruh', 'taat', 'orang', 'gblk', 'tuhan', 'untun']</t>
+          <t>['khadijah', 'sesungguhnya', 'allah', 'menciptakan', 'wanita', 'kelemahan', 'aurat', 'obatilah', 'kelemahan', 'diam', 'tutupilah']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['khadijah', 'sungguh', 'allah', 'cipta', 'wanita', 'lemah', 'aurat', 'obat', 'lemah', 'diam', 'tutup']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16697</v>
+        <v>27466</v>
       </c>
       <c r="C55" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jangan kau cari nilai dirimu dalam penilaian orang lain carilah nilai dirimu dalam hatimu sendiri</t>
+          <t>rt id semakin video ini viral maka semakin baik siapa tau dengan banyak yang tau kode ini ada nyawa seseorang yang bisa terto</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['jangan', 'kau', 'cari', 'nilai', 'dirimu', 'dalam', 'penilaian', 'orang', 'lain', 'carilah', 'nilai', 'dirimu', 'dalam', 'hatimu', 'sendiri']</t>
+          <t>['rt', 'id', 'semakin', 'video', 'ini', 'viral', 'maka', 'semakin', 'baik', 'siapa', 'tau', 'dengan', 'banyak', 'yang', 'tau', 'kode', 'ini', 'ada', 'nyawa', 'seseorang', 'yang', 'bisa', 'terto']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'id', 'semakin', 'video', 'ini', 'viral', 'maka', 'semakin', 'baik', 'siapa', 'tau', 'dengan', 'banyak', 'yang', 'tau', 'kode', 'ini', 'ada', 'nyawa', 'seseorang', 'yang', 'bisa', 'terto']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['kau', 'cari', 'nilai', 'dirimu', 'penilaian', 'orang', 'carilah', 'nilai', 'dirimu', 'hatimu']</t>
+          <t>&lt;FreqDist with 19 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['kau', 'cari', 'nilai', 'diri', 'nilai', 'orang', 'cari', 'nilai', 'diri', 'hati']</t>
+          <t>['id', 'video', 'viral', 'kode', 'nyawa', 'terto']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['id', 'video', 'viral', 'kode', 'nyawa', 'terto']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16698</v>
+        <v>27467</v>
       </c>
       <c r="C56" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kebahagian itu kita sendiri yang ciptakan</t>
+          <t>perjalanan rasulullah saw yg berangkat dari bumi yg rendah menuju almuntaha adalah cerminan perjalanan hidup kita</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kebahagian', 'itu', 'kita', 'sendiri', 'yang', 'ciptakan']</t>
+          <t>['perjalanan', 'rasulullah', 'saw', 'yg', 'berangkat', 'dari', 'bumi', 'yg', 'rendah', 'menuju', 'almuntaha', 'adalah', 'cerminan', 'perjalanan', 'hidup', 'kita']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['perjalanan', 'rasulullah', 'saw', 'yang', 'berangkat', 'dari', 'bumi', 'yang', 'rendah', 'menuju', 'almuntaha', 'adalah', 'cerminan', 'perjalanan', 'hidup', 'kita']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['kebahagian', 'ciptakan']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kebahagian', 'cipta']</t>
+          <t>['perjalanan', 'rasulullah', 'saw', 'berangkat', 'bumi', 'rendah', 'almuntaha', 'cerminan', 'perjalanan', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['jalan', 'rasulullah', 'saw', 'berangkat', 'bumi', 'rendah', 'almuntaha', 'cermin', 'jalan', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16699</v>
+        <v>27468</v>
       </c>
       <c r="C57" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ya allah ya rabb</t>
+          <t>rt sekarang adalah peringatan hari isra miraj dan hari diutusnya rasulullah saw momen baik utk kembali menelaah sudah sejauh</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['ya', 'allah', 'ya', 'rabb']</t>
+          <t>['rt', 'sekarang', 'adalah', 'peringatan', 'hari', 'isra', 'miraj', 'dan', 'hari', 'diutusnya', 'rasulullah', 'saw', 'momen', 'baik', 'utk', 'kembali', 'menelaah', 'sudah', 'sejauh']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'sekarang', 'adalah', 'peringatan', 'hari', 'isra', 'miraj', 'dan', 'hari', 'diutusnya', 'rasulullah', 'saw', 'momen', 'baik', 'untuk', 'kembali', 'menelaah', 'sudah', 'sejauh']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['allah', 'rabb']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['allah', 'rabb']</t>
+          <t>['peringatan', 'isra', 'miraj', 'diutusnya', 'rasulullah', 'saw', 'momen', 'menelaah']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['ingat', 'isra', 'miraj', 'utus', 'rasulullah', 'saw', 'momen', 'telaah']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16700</v>
+        <v>27469</v>
       </c>
       <c r="C58" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>guru di gugu dan di tiru</t>
+          <t xml:space="preserve">rt khadijah suami istri tidak mungkin saling menjaga jam tetapi doa akan menjaga jiwanya dalam setiap hembusan nafasnya </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['guru', 'di', 'gugu', 'dan', 'di', 'tiru']</t>
+          <t>['rt', 'khadijah', 'suami', 'istri', 'tidak', 'mungkin', 'saling', 'menjaga', 'jam', 'tetapi', 'doa', 'akan', 'menjaga', 'jiwanya', 'dalam', 'setiap', 'hembusan', 'nafasnya']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'khadijah', 'suami', 'istri', 'tidak', 'mungkin', 'saling', 'menjaga', 'jam', 'tetapi', 'doa', 'akan', 'menjaga', 'jiwanya', 'dalam', 'setiap', 'hembusan', 'nafasnya']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['guru', 'gugu', 'tiru']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['guru', 'gugu', 'tiru']</t>
+          <t>['khadijah', 'suami', 'istri', 'menjaga', 'jam', 'doa', 'menjaga', 'jiwanya', 'hembusan', 'nafasnya']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['khadijah', 'suami', 'istri', 'jaga', 'jam', 'doa', 'jaga', 'jiwa', 'hembus', 'nafas']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16701</v>
+        <v>27470</v>
       </c>
       <c r="C59" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>renungan buat kita yang punya banyak banget baju lemari terkhusus para perempuan</t>
+          <t>rt asma jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi bahtera</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['renungan', 'buat', 'kita', 'yang', 'punya', 'banyak', 'banget', 'baju', 'lemari', 'terkhusus', 'para', 'perempuan']</t>
+          <t>['rt', 'asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'bahtera']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'bahtera']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['renungan', 'banget', 'baju', 'lemari', 'terkhusus', 'perempuan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['renung', 'banget', 'baju', 'lemari', 'khusus', 'perempuan']</t>
+          <t>['asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi', 'bahtera']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['asma', 'jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung', 'bahtera']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16702</v>
+        <v>27471</v>
       </c>
       <c r="C60" t="n">
-        <v>208</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>ini namanya niat</t>
-        </is>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['ini', 'namanya', 'niat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['namanya', 'niat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['nama', 'niat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16703</v>
+        <v>27472</v>
       </c>
       <c r="C61" t="n">
-        <v>208</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>rt kesederhanaan akan melepaskan kita dari dunia yang rumit edisi khilaf ahok</t>
-        </is>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'kesederhanaan', 'akan', 'melepaskan', 'kita', 'dari', 'dunia', 'yang', 'rumit', 'edisi', 'khilaf', 'ahok']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kesederhanaan', 'melepaskan', 'dunia', 'rumit', 'edisi', 'khilaf', 'ahok']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['sederhana', 'lepas', 'dunia', 'rumit', 'edisi', 'khilaf', 'ahok']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2932,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16704</v>
+        <v>27473</v>
       </c>
       <c r="C62" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt nice</t>
+          <t>rt selamat hari mabats selamat memperingati hari isra miraj nabi muhammad saw</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'nice']</t>
+          <t>['rt', 'selamat', 'hari', 'mabats', 'selamat', 'memperingati', 'hari', 'isra', 'miraj', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'hari', 'mabats', 'selamat', 'memperingati', 'hari', 'isra', 'miraj', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['nice']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['nice']</t>
+          <t>['selamat', 'mabats', 'selamat', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['selamat', 'mabats', 'selamat', 'ingat', 'isra', 'miraj', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2973,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16705</v>
+        <v>27474</v>
       </c>
       <c r="C63" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt fre noted</t>
+          <t>rt sending abundant salawat upon the prophet muhammad salallahu alayhi wasalam is  way to show our gratitude towards him</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'fre', 'noted']</t>
+          <t>['rt', 'sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['fre', 'noted']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['fre', 'noted']</t>
+          <t>['sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3014,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16706</v>
+        <v>27475</v>
       </c>
       <c r="C64" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt asma jika tanganmu berat untuk memberi sesama maka ringankanlah lisanmu untuk mendoakannya jangan sampai tidak mau memberi ma</t>
+          <t>hari bitsah rasulullah saw dan pengutusan para nabi di tengah berbagai umat sebagai sebuah gerakan besar dengan or</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jika', 'tanganmu', 'berat', 'untuk', 'memberi', 'sesama', 'maka', 'ringankanlah', 'lisanmu', 'untuk', 'mendoakannya', 'jangan', 'sampai', 'tidak', 'mau', 'memberi', 'ma']</t>
+          <t>['hari', 'bitsah', 'rasulullah', 'saw', 'dan', 'pengutusan', 'para', 'nabi', 'di', 'tengah', 'berbagai', 'umat', 'sebagai', 'sebuah', 'gerakan', 'besar', 'dengan', 'or']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['hari', 'bitsah', 'rasulullah', 'saw', 'dan', 'pengutusan', 'para', 'nabi', 'di', 'tengah', 'berbagai', 'umat', 'sebagai', 'sebuah', 'gerakan', 'besar', 'dengan', 'orang']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['asma', 'tanganmu', 'berat', 'ringankanlah', 'lisanmu', 'mendoakannya', 'ma']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['asma', 'tangan', 'berat', 'ringan', 'lisan', 'doa', 'ma']</t>
+          <t>['bitsah', 'rasulullah', 'saw', 'pengutusan', 'nabi', 'umat', 'gerakan', 'orang']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['bitsah', 'rasulullah', 'saw', 'utus', 'nabi', 'umat', 'gera', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3055,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16707</v>
+        <v>27476</v>
       </c>
       <c r="C65" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>zaman sekarang malah banyak orangorang yang berpikir sebaliknya</t>
+          <t>nabi muhammad saw bukan hanya maksum dalam penerimaan wahyu tetapi dalam segala aspek kehidupannya pun terjaga dari</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['zaman', 'sekarang', 'malah', 'banyak', 'orangorang', 'yang', 'berpikir', 'sebaliknya']</t>
+          <t>['nabi', 'muhammad', 'saw', 'bukan', 'hanya', 'maksum', 'dalam', 'penerimaan', 'wahyu', 'tetapi', 'dalam', 'segala', 'aspek', 'kehidupannya', 'pun', 'terjaga', 'dari']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['nabi', 'muhammad', 'saw', 'bukan', 'hanya', 'maksum', 'dalam', 'penerimaan', 'wahyu', 'tetapi', 'dalam', 'segala', 'aspek', 'kehidupannya', 'pun', 'terjaga', 'dari']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['zaman', 'orangorang', 'berpikir']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['zaman', 'orangorang', 'pikir']</t>
+          <t>['nabi', 'muhammad', 'saw', 'maksum', 'penerimaan', 'wahyu', 'aspek', 'kehidupannya', 'terjaga']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['nabi', 'muhammad', 'saw', 'maksum', 'terima', 'wahyu', 'aspek', 'hidup', 'jaga']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3096,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16708</v>
+        <v>27477</v>
       </c>
       <c r="C66" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>kesederhanaan akan melepaskan kita dari dunia yang rumit edisi khilaf ahok</t>
+          <t xml:space="preserve">siapa saja yang melihatnya rasulullah saw sebelum mengenalnya ia akan merasakan kewibawaannya dan siapa saja </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['kesederhanaan', 'akan', 'melepaskan', 'kita', 'dari', 'dunia', 'yang', 'rumit', 'edisi', 'khilaf', 'ahok']</t>
+          <t>['siapa', 'saja', 'yang', 'melihatnya', 'rasulullah', 'saw', 'sebelum', 'mengenalnya', 'ia', 'akan', 'merasakan', 'kewibawaannya', 'dan', 'siapa', 'saja']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['siapa', 'saja', 'yang', 'melihatnya', 'rasulullah', 'saw', 'sebelum', 'mengenalnya', 'ia', 'akan', 'merasakan', 'kewibawaannya', 'dan', 'siapa', 'saja']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['kesederhanaan', 'melepaskan', 'dunia', 'rumit', 'edisi', 'khilaf', 'ahok']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['sederhana', 'lepas', 'dunia', 'rumit', 'edisi', 'khilaf', 'ahok']</t>
+          <t>['rasulullah', 'saw', 'mengenalnya', 'merasakan', 'kewibawaannya']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'saw', 'kenal', 'rasa', 'wibawa']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3137,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16709</v>
+        <v>27478</v>
       </c>
       <c r="C67" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt khadijah orangorang yang mencintai rasulullah maka hatinya mulutnya serta pikirannya suka menyebut serta memujimuji rasul</t>
+          <t>rt  love prophet muhammad</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'orangorang', 'yang', 'mencintai', 'rasulullah', 'maka', 'hatinya', 'mulutnya', 'serta', 'pikirannya', 'suka', 'menyebut', 'serta', 'memujimuji', 'rasul']</t>
+          <t>['rt', 'love', 'prophet', 'muhammad']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'love', 'prophet', 'muhammad']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['khadijah', 'orangorang', 'mencintai', 'rasulullah', 'hatinya', 'mulutnya', 'pikirannya', 'suka', 'menyebut', 'memujimuji', 'rasul']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['khadijah', 'orangorang', 'cinta', 'rasulullah', 'hati', 'mulut', 'pikir', 'suka', 'sebut', 'memujimuji', 'rasul']</t>
+          <t>['love', 'prophet', 'muhammad']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['love', 'prophet', 'muhammad']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3178,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16710</v>
+        <v>27479</v>
       </c>
       <c r="C68" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kerja nyata bukan banyak berkatakata</t>
+          <t>selama tahun hidup bersama nabi muhammad saw sayidah khadijah telah memberikan pengorbanan besar kepada beliau</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['kerja', 'nyata', 'bukan', 'banyak', 'berkatakata']</t>
+          <t>['selama', 'tahun', 'hidup', 'bersama', 'nabi', 'muhammad', 'saw', 'sayidah', 'khadijah', 'telah', 'memberikan', 'pengorbanan', 'besar', 'kepada', 'beliau']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['selama', 'tahun', 'hidup', 'bersama', 'nabi', 'muhammad', 'saw', 'sayidah', 'khadijah', 'telah', 'memberikan', 'pengorbanan', 'besar', 'kepada', 'beliau']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['kerja', 'nyata', 'berkatakata']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['kerja', 'nyata', 'berkatakata']</t>
+          <t>['hidup', 'nabi', 'muhammad', 'saw', 'sayidah', 'khadijah', 'pengorbanan', 'beliau']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['hidup', 'nabi', 'muhammad', 'saw', 'sayidah', 'khadijah', 'korban', 'beliau']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3219,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16711</v>
+        <v>27480</v>
       </c>
       <c r="C69" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>dengan memahmi artinya kemudian merenungkannya</t>
+          <t>sayyidah khadijah selama tahun menjadi pendamping dan istri yang setia dan jujur bagi rasulullah saw wanita mul</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['dengan', 'memahmi', 'artinya', 'kemudian', 'merenungkannya']</t>
+          <t>['sayyidah', 'khadijah', 'selama', 'tahun', 'menjadi', 'pendamping', 'dan', 'istri', 'yang', 'setia', 'dan', 'jujur', 'bagi', 'rasulullah', 'saw', 'wanita', 'mul']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sayyidah', 'khadijah', 'selama', 'tahun', 'menjadi', 'pendamping', 'dan', 'istri', 'yang', 'setia', 'dan', 'jujur', 'bagi', 'rasulullah', 'saw', 'wanita', 'mul']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['memahmi', 'merenungkannya']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['memahmi', 'renung']</t>
+          <t>['sayyidah', 'khadijah', 'pendamping', 'istri', 'setia', 'jujur', 'rasulullah', 'saw', 'wanita', 'mul']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['sayyidah', 'khadijah', 'damping', 'istri', 'setia', 'jujur', 'rasulullah', 'saw', 'wanita', 'mul']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3260,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16712</v>
+        <v>27481</v>
       </c>
       <c r="C70" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt alquran mengandung pengetahuan cahaya dan obat bagi hati yang hanya dimengerti oleh orangorang yang mampu memaham</t>
+          <t>tidak ada yang dapat menyamai khadijah ketika semua mendustakanku ia membenarkanku ia menjadi penolongku dalam</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'alquran', 'mengandung', 'pengetahuan', 'cahaya', 'dan', 'obat', 'bagi', 'hati', 'yang', 'hanya', 'dimengerti', 'oleh', 'orangorang', 'yang', 'mampu', 'memaham']</t>
+          <t>['tidak', 'ada', 'yang', 'dapat', 'menyamai', 'khadijah', 'ketika', 'semua', 'mendustakanku', 'ia', 'membenarkanku', 'ia', 'menjadi', 'penolongku', 'dalam']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'yang', 'dapat', 'menyamai', 'khadijah', 'ketika', 'semua', 'mendustakanku', 'ia', 'membenarkanku', 'ia', 'menjadi', 'penolongku', 'dalam']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['alquran', 'mengandung', 'pengetahuan', 'cahaya', 'obat', 'hati', 'dimengerti', 'orangorang', 'memaham']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['alquran', 'kandung', 'tahu', 'cahaya', 'obat', 'hati', 'erti', 'orangorang', 'paham']</t>
+          <t>['menyamai', 'khadijah', 'mendustakanku', 'membenarkanku', 'penolongku']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['sama', 'khadijah', 'dusta', 'benar', 'tolong']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3301,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16713</v>
+        <v>27482</v>
       </c>
       <c r="C71" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilaihi rajiun</t>
+          <t>sayyidah khadijah berkata aku beriman aku meyakini kenabianmu aku menerima agama islam dan aku berserah diri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun']</t>
+          <t>['sayyidah', 'khadijah', 'berkata', 'aku', 'beriman', 'aku', 'meyakini', 'kenabianmu', 'aku', 'menerima', 'agama', 'islam', 'dan', 'aku', 'berserah', 'diri']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sayyidah', 'khadijah', 'berkata', 'aku', 'beriman', 'aku', 'meyakini', 'kenabianmu', 'aku', 'menerima', 'agama', 'islam', 'dan', 'aku', 'berserah', 'diri']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun']</t>
+          <t>['sayyidah', 'khadijah', 'beriman', 'kenabianmu', 'menerima', 'agama', 'islam', 'berserah']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['sayyidah', 'khadijah', 'iman', 'nabi', 'terima', 'agama', 'islam', 'serah']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3342,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16714</v>
+        <v>27483</v>
       </c>
       <c r="C72" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>astaghfirullahaladzim</t>
+          <t>sayyidah khadijah adalah pendamping terbaik rasulullah saw</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['astaghfirullahaladzim']</t>
+          <t>['sayyidah', 'khadijah', 'adalah', 'pendamping', 'terbaik', 'rasulullah', 'saw']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['sayyidah', 'khadijah', 'adalah', 'pendamping', 'terbaik', 'rasulullah', 'saw']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['astaghfirullahaladzim']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['astaghfirullahaladzim']</t>
+          <t>['sayyidah', 'khadijah', 'pendamping', 'terbaik', 'rasulullah', 'saw']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['sayyidah', 'khadijah', 'damping', 'baik', 'rasulullah', 'saw']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3383,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16715</v>
+        <v>27484</v>
       </c>
       <c r="C73" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t xml:space="preserve">di balik lakilaki sukes ada perempuan hebat di belakangnya dan sayyidah khadijah adalah sosok hebat di belakang </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['di', 'balik', 'lakilaki', 'sukes', 'ada', 'perempuan', 'hebat', 'di', 'belakangnya', 'dan', 'sayyidah', 'khadijah', 'adalah', 'sosok', 'hebat', 'di', 'belakang']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['di', 'balik', 'lakilaki', 'sukes', 'ada', 'perempuan', 'hebat', 'di', 'belakangnya', 'dan', 'sayyidah', 'khadijah', 'adalah', 'sosok', 'hebat', 'di', 'belakang']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lakilaki', 'sukes', 'perempuan', 'hebat', 'belakangnya', 'sayyidah', 'khadijah', 'sosok', 'hebat']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['lakilaki', 'sukes', 'perempuan', 'hebat', 'belakang', 'sayyidah', 'khadijah', 'sosok', 'hebat']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3424,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16716</v>
+        <v>27485</v>
       </c>
       <c r="C74" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>nabi muhammad saw dgn wahyu ilahi akhlak mulia dan perilaku terpujinya telah mempersembahkan jalan petunjuk bagi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['nabi', 'muhammad', 'saw', 'dgn', 'wahyu', 'ilahi', 'akhlak', 'mulia', 'dan', 'perilaku', 'terpujinya', 'telah', 'mempersembahkan', 'jalan', 'petunjuk', 'bagi']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nabi', 'muhammad', 'saw', 'dengan', 'wahyu', 'ilahi', 'akhlak', 'mulia', 'dan', 'perilaku', 'terpujinya', 'telah', 'mempersembahkan', 'jalan', 'petunjuk', 'bagi']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nabi', 'muhammad', 'saw', 'wahyu', 'ilahi', 'akhlak', 'mulia', 'perilaku', 'terpujinya', 'mempersembahkan', 'jalan', 'petunjuk']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['nabi', 'muhammad', 'saw', 'wahyu', 'ilahi', 'akhlak', 'mulia', 'perilaku', 'puji', 'sembah', 'jalan', 'tunjuk']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3465,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16717</v>
+        <v>27486</v>
       </c>
       <c r="C75" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>salah satu tujuan bitsah adalah untuk menyempurnakan keutamaankeutamaan ahlak manusia</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['salah', 'satu', 'tujuan', 'bitsah', 'adalah', 'untuk', 'menyempurnakan', 'keutamaankeutamaan', 'ahlak', 'manusia']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['salah', 'satu', 'tujuan', 'bitsah', 'adalah', 'untuk', 'menyempurnakan', 'keutamaankeutamaan', 'ahlak', 'manusia']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['salah', 'tujuan', 'bitsah', 'menyempurnakan', 'keutamaankeutamaan', 'ahlak', 'manusia']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['salah', 'tuju', 'bitsah', 'sempurna', 'keutamaankeutamaan', 'ahlak', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16718</v>
+        <v>27487</v>
       </c>
       <c r="C76" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>bitsah rasulullah saw sebagai peristiwa terbesar yang paling berpengaruh dalam sejarah sekaligus karunia ilahi te</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['bitsah', 'rasulullah', 'saw', 'sebagai', 'peristiwa', 'terbesar', 'yang', 'paling', 'berpengaruh', 'dalam', 'sejarah', 'sekaligus', 'karunia', 'ilahi', 'te']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['bitsah', 'rasulullah', 'saw', 'sebagai', 'peristiwa', 'terbesar', 'yang', 'paling', 'berpengaruh', 'dalam', 'sejarah', 'sekaligus', 'karunia', 'ilahi', 'te']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bitsah', 'rasulullah', 'saw', 'peristiwa', 'terbesar', 'berpengaruh', 'sejarah', 'karunia', 'ilahi', 'te']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['bitsah', 'rasulullah', 'saw', 'peristiwa', 'besar', 'pengaruh', 'sejarah', 'karunia', 'ilahi', 'te']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16719</v>
+        <v>27488</v>
       </c>
       <c r="C77" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>nabi muhammad saw adalah simbol manusia sempurna lewat keindahan akhlaqnya lurus prilakunya kebersihan fitraahny</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['nabi', 'muhammad', 'saw', 'adalah', 'simbol', 'manusia', 'sempurna', 'lewat', 'keindahan', 'akhlaqnya', 'lurus', 'prilakunya', 'kebersihan', 'fitraahny']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nabi', 'muhammad', 'saw', 'adalah', 'simbol', 'manusia', 'sempurna', 'lewat', 'keindahan', 'akhlaqnya', 'lurus', 'prilakunya', 'kebersihan', 'fitraahny']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nabi', 'muhammad', 'saw', 'simbol', 'manusia', 'sempurna', 'keindahan', 'akhlaqnya', 'lurus', 'prilakunya', 'kebersihan', 'fitraahny']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['nabi', 'muhammad', 'saw', 'simbol', 'manusia', 'sempurna', 'indah', 'akhlaqnya', 'lurus', 'prilakunya', 'bersih', 'fitraahny']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16720</v>
+        <v>27489</v>
       </c>
       <c r="C78" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>bitsah nabi saw lebih ditekankan karena beliau membawa misi terakhir menyempurnakan agama allah untuk segala masa</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['bitsah', 'nabi', 'saw', 'lebih', 'ditekankan', 'karena', 'beliau', 'membawa', 'misi', 'terakhir', 'menyempurnakan', 'agama', 'allah', 'untuk', 'segala', 'masa']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['bitsah', 'nabi', 'saw', 'lebih', 'ditekankan', 'karena', 'beliau', 'membawa', 'misi', 'terakhir', 'menyempurnakan', 'agama', 'allah', 'untuk', 'segala', 'masa']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bitsah', 'nabi', 'saw', 'ditekankan', 'beliau', 'membawa', 'misi', 'menyempurnakan', 'agama', 'allah']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['bitsah', 'nabi', 'saw', 'tekan', 'beliau', 'bawa', 'misi', 'sempurna', 'agama', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16721</v>
+        <v>27490</v>
       </c>
       <c r="C79" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>karena kurangnya keseriusan pemerintah dalam menangani dan melindungi kekayaan alam kita</t>
+          <t>tujuan utama bitsah nabi saw dan seluruh nabi adalah petunjuk dan tazkiah nafs yang menjadi landasan hidayah masy</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['karena', 'kurangnya', 'keseriusan', 'pemerintah', 'dalam', 'menangani', 'dan', 'melindungi', 'kekayaan', 'alam', 'kita']</t>
+          <t>['tujuan', 'utama', 'bitsah', 'nabi', 'saw', 'dan', 'seluruh', 'nabi', 'adalah', 'petunjuk', 'dan', 'tazkiah', 'nafs', 'yang', 'menjadi', 'landasan', 'hidayah', 'masy']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['tujuan', 'utama', 'bitsah', 'nabi', 'saw', 'dan', 'seluruh', 'nabi', 'adalah', 'petunjuk', 'dan', 'tazkiah', 'nafs', 'yang', 'menjadi', 'landasan', 'hidayah', 'masyarakat']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['kurangnya', 'keseriusan', 'pemerintah', 'menangani', 'melindungi', 'kekayaan', 'alam']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['kurang', 'serius', 'perintah', 'tangan', 'lindung', 'kaya', 'alam']</t>
+          <t>['tujuan', 'utama', 'bitsah', 'nabi', 'saw', 'nabi', 'petunjuk', 'tazkiah', 'nafs', 'landasan', 'hidayah', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tuju', 'utama', 'bitsah', 'nabi', 'saw', 'nabi', 'tunjuk', 'tazkiah', 'nafs', 'landas', 'hidayah', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16722</v>
+        <v>27491</v>
       </c>
       <c r="C80" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>sabar adalah kunci dari segala sesuatu</t>
+          <t>jalan mencapai kebahagiaan dunia dan akhirat adalah meneladani sirah nabi saw dengan menerapkan dan menjalankan ak</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['sabar', 'adalah', 'kunci', 'dari', 'segala', 'sesuatu']</t>
+          <t>['jalan', 'mencapai', 'kebahagiaan', 'dunia', 'dan', 'akhirat', 'adalah', 'meneladani', 'sirah', 'nabi', 'saw', 'dengan', 'menerapkan', 'dan', 'menjalankan', 'ak']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['jalan', 'mencapai', 'kebahagiaan', 'dunia', 'dan', 'akhirat', 'adalah', 'meneladani', 'sirah', 'nabi', 'saw', 'dengan', 'menerapkan', 'dan', 'menjalankan', 'aku']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['sabar', 'kunci']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['sabar', 'kunci']</t>
+          <t>['jalan', 'mencapai', 'kebahagiaan', 'dunia', 'akhirat', 'meneladani', 'sirah', 'nabi', 'saw', 'menerapkan', 'menjalankan']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['jalan', 'capai', 'bahagia', 'dunia', 'akhirat', 'teladan', 'sirah', 'nabi', 'saw', 'terap', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3711,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16723</v>
+        <v>27492</v>
       </c>
       <c r="C81" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>alquran mengandung pengetahuan cahaya dan obat bagi hati yang hanya dimengerti oleh orangorang yang mampu me</t>
+          <t>dengan diutusnya nabi saw keadilan tersebar diberbagai tempat kaum wanita yang pada zaman jahiliah sebelum islam</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['alquran', 'mengandung', 'pengetahuan', 'cahaya', 'dan', 'obat', 'bagi', 'hati', 'yang', 'hanya', 'dimengerti', 'oleh', 'orangorang', 'yang', 'mampu', 'me']</t>
+          <t>['dengan', 'diutusnya', 'nabi', 'saw', 'keadilan', 'tersebar', 'diberbagai', 'tempat', 'kaum', 'wanita', 'yang', 'pada', 'zaman', 'jahiliah', 'sebelum', 'islam']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dengan', 'diutusnya', 'nabi', 'saw', 'keadilan', 'tersebar', 'diberbagai', 'tempat', 'kaum', 'wanita', 'yang', 'pada', 'zaman', 'jahiliah', 'sebelum', 'islam']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['alquran', 'mengandung', 'pengetahuan', 'cahaya', 'obat', 'hati', 'dimengerti', 'orangorang', 'me']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['alquran', 'kandung', 'tahu', 'cahaya', 'obat', 'hati', 'erti', 'orangorang', 'me']</t>
+          <t>['diutusnya', 'nabi', 'saw', 'keadilan', 'tersebar', 'diberbagai', 'kaum', 'wanita', 'zaman', 'jahiliah', 'islam']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['utus', 'nabi', 'saw', 'adil', 'sebar', 'bagai', 'kaum', 'wanita', 'zaman', 'jahiliah', 'islam']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3752,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16724</v>
+        <v>27493</v>
       </c>
       <c r="C82" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt naah</t>
+          <t>dengan meneladani sirah rasulullah saw kaum muslimin di dunia hari ini harus menjauhkan diri dari perpecahan dan</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'naah']</t>
+          <t>['dengan', 'meneladani', 'sirah', 'rasulullah', 'saw', 'kaum', 'muslimin', 'di', 'dunia', 'hari', 'ini', 'harus', 'menjauhkan', 'diri', 'dari', 'perpecahan', 'dan']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['dengan', 'meneladani', 'sirah', 'rasulullah', 'saw', 'kaum', 'muslimin', 'di', 'dunia', 'hari', 'ini', 'harus', 'menjauhkan', 'diri', 'dari', 'perpecahan', 'dan']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['naah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['naah']</t>
+          <t>['meneladani', 'sirah', 'rasulullah', 'saw', 'kaum', 'muslimin', 'dunia', 'menjauhkan', 'perpecahan']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['teladan', 'sirah', 'rasulullah', 'saw', 'kaum', 'muslimin', 'dunia', 'jauh', 'pecah']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3793,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16725</v>
+        <v>27494</v>
       </c>
       <c r="C83" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt naaaah</t>
+          <t>dan berpeganglah kalian semuanya kepada tali allah dan janganlah kalian bercerai berai qs ali imran</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'naaaah']</t>
+          <t>['dan', 'berpeganglah', 'kalian', 'semuanya', 'kepada', 'tali', 'allah', 'dan', 'janganlah', 'kalian', 'bercerai', 'berai', 'qs', 'ali', 'imran']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['dan', 'berpeganglah', 'kalian', 'semuanya', 'kepada', 'tali', 'allah', 'dan', 'janganlah', 'kalian', 'bercerai', 'berai', 'qs', 'ali', 'imran']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['naaaah']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['naaaah']</t>
+          <t>['berpeganglah', 'tali', 'allah', 'bercerai', 'berai', 'qs', 'ali', 'imran']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['gang', 'tali', 'allah', 'cerai', 'berai', 'qs', 'ali', 'imran']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3834,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16726</v>
+        <v>27495</v>
       </c>
       <c r="C84" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>sabar adalah kunci dari segala sesuatu</t>
+          <t>akal ialah sesuatu yang dengannyalah yang maha pengasih disembah dan surga digapai</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['sabar', 'adalah', 'kunci', 'dari', 'segala', 'sesuatu']</t>
+          <t>['akal', 'ialah', 'sesuatu', 'yang', 'dengannyalah', 'yang', 'maha', 'pengasih', 'disembah', 'dan', 'surga', 'digapai']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['akal', 'ialah', 'sesuatu', 'yang', 'dengannyalah', 'yang', 'maha', 'pengasih', 'disembah', 'dan', 'surga', 'digapai']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['sabar', 'kunci']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['sabar', 'kunci']</t>
+          <t>['akal', 'dengannyalah', 'maha', 'pengasih', 'disembah', 'surga', 'digapai']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['akal', 'dengan', 'maha', 'asih', 'sembah', 'surga', 'gapai']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3875,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16727</v>
+        <v>27496</v>
       </c>
       <c r="C85" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hikmah</t>
+          <t xml:space="preserve">agenda pertama rasulullah saw ialah membangkitkan peranan akal dan daya fikir manusia dan masyarakat manusia dan </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['hikmah']</t>
+          <t>['agenda', 'pertama', 'rasulullah', 'saw', 'ialah', 'membangkitkan', 'peranan', 'akal', 'dan', 'daya', 'fikir', 'manusia', 'dan', 'masyarakat', 'manusia', 'dan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['agenda', 'pertama', 'rasulullah', 'saw', 'ialah', 'membangkitkan', 'peranan', 'akal', 'dan', 'daya', 'pikir', 'manusia', 'dan', 'masyarakat', 'manusia', 'dan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['hikmah']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['hikmah']</t>
+          <t>['agenda', 'rasulullah', 'saw', 'membangkitkan', 'peranan', 'akal', 'daya', 'pikir', 'manusia', 'masyarakat', 'manusia']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['agenda', 'rasulullah', 'saw', 'bangkit', 'peran', 'akal', 'daya', 'pikir', 'manusia', 'masyarakat', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3916,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16728</v>
+        <v>27497</v>
       </c>
       <c r="C86" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt butakanlah dirimu ketika melihat aib orang lain dan bukalah dirimu untuk melihat aib diri sendiri</t>
+          <t xml:space="preserve">bitsah mengeskplorasi daya nalar manusia dan mendudukkannya pada posisi teratas menyalakan pelita fikiran untuk </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'butakanlah', 'dirimu', 'ketika', 'melihat', 'aib', 'orang', 'lain', 'dan', 'bukalah', 'dirimu', 'untuk', 'melihat', 'aib', 'diri', 'sendiri']</t>
+          <t>['bitsah', 'mengeskplorasi', 'daya', 'nalar', 'manusia', 'dan', 'mendudukkannya', 'pada', 'posisi', 'teratas', 'menyalakan', 'pelita', 'fikiran', 'untuk']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['bitsah', 'mengeskplorasi', 'daya', 'nalar', 'manusia', 'dan', 'mendudukkannya', 'pada', 'posisi', 'teratas', 'menyalakan', 'pelita', 'pikiran', 'untuk']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['butakanlah', 'dirimu', 'aib', 'orang', 'bukalah', 'dirimu', 'aib']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['buta', 'diri', 'aib', 'orang', 'buka', 'diri', 'aib']</t>
+          <t>['bitsah', 'mengeskplorasi', 'daya', 'nalar', 'manusia', 'mendudukkannya', 'posisi', 'teratas', 'menyalakan', 'pelita', 'pikiran']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['bitsah', 'mengeskplorasi', 'daya', 'nalar', 'manusia', 'duduk', 'posisi', 'atas', 'nyala', 'pelita', 'pikir']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16729</v>
+        <v>27498</v>
       </c>
       <c r="C87" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt khadijah peran agama sesungguhnya membuat orang sadar akan fakta bahwa dirinya bagian dari umat manusia dan alam semesta gu</t>
+          <t>di bulan rajab terdapat malam yg lebih baik dari dunia yaitu malam ketika nabi saw diutus mengemban risalah</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'peran', 'agama', 'sesungguhnya', 'membuat', 'orang', 'sadar', 'akan', 'fakta', 'bahwa', 'dirinya', 'bagian', 'dari', 'umat', 'manusia', 'dan', 'alam', 'semesta', 'gu']</t>
+          <t>['di', 'bulan', 'rajab', 'terdapat', 'malam', 'yg', 'lebih', 'baik', 'dari', 'dunia', 'yaitu', 'malam', 'ketika', 'nabi', 'saw', 'diutus', 'mengemban', 'risalah']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['di', 'bulan', 'rajab', 'terdapat', 'malam', 'yang', 'lebih', 'baik', 'dari', 'dunia', 'yaitu', 'malam', 'ketika', 'nabi', 'saw', 'diutus', 'mengemban', 'risalah']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['khadijah', 'peran', 'agama', 'sesungguhnya', 'orang', 'sadar', 'fakta', 'umat', 'manusia', 'alam', 'semesta', 'gu']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['khadijah', 'peran', 'agama', 'sungguh', 'orang', 'sadar', 'fakta', 'umat', 'manusia', 'alam', 'semesta', 'gu']</t>
+          <t>['rajab', 'malam', 'dunia', 'malam', 'nabi', 'saw', 'diutus', 'mengemban', 'risalah']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['rajab', 'malam', 'dunia', 'malam', 'nabi', 'saw', 'utus', 'emban', 'risalah']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16730</v>
+        <v>27499</v>
       </c>
       <c r="C88" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>butakanlah dirimu ketika melihat aib orang lain dan bukalah dirimu untuk melihat aib diri sendiri</t>
+          <t>bitsah adalah kebangkitan untuk menyelamatkan manusia dan kemanusiaan bitsah adalah penempatan sistem yang benar</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['butakanlah', 'dirimu', 'ketika', 'melihat', 'aib', 'orang', 'lain', 'dan', 'bukalah', 'dirimu', 'untuk', 'melihat', 'aib', 'diri', 'sendiri']</t>
+          <t>['bitsah', 'adalah', 'kebangkitan', 'untuk', 'menyelamatkan', 'manusia', 'dan', 'kemanusiaan', 'bitsah', 'adalah', 'penempatan', 'sistem', 'yang', 'benar']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['bitsah', 'adalah', 'kebangkitan', 'untuk', 'menyelamatkan', 'manusia', 'dan', 'kemanusiaan', 'bitsah', 'adalah', 'penempatan', 'sistem', 'yang', 'benar']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['butakanlah', 'dirimu', 'aib', 'orang', 'bukalah', 'dirimu', 'aib']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['buta', 'diri', 'aib', 'orang', 'buka', 'diri', 'aib']</t>
+          <t>['bitsah', 'kebangkitan', 'menyelamatkan', 'manusia', 'kemanusiaan', 'bitsah', 'penempatan', 'sistem']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['bitsah', 'bangkit', 'selamat', 'manusia', 'manusia', 'bitsah', 'tempat', 'sistem']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16731</v>
+        <v>27500</v>
       </c>
       <c r="C89" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt asma jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi bahtera</t>
+          <t>rt rasulullah saw adalah insan suci</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'bahtera']</t>
+          <t>['rt', 'rasulullah', 'saw', 'adalah', 'insan', 'suci']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'rasulullah', 'saw', 'adalah', 'insan', 'suci']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi', 'bahtera']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['asma', 'jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung', 'bahtera']</t>
+          <t>['rasulullah', 'saw', 'insan', 'suci']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'saw', 'insan', 'suci']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16732</v>
+        <v>27501</v>
       </c>
       <c r="C90" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt khadijah siapa yang merusak hubungan seorang wanita dengan suaminya maka dia bukanlah bagian dari kami hr ibnu hibban</t>
+          <t>rt batrisyia nabi muhammad saw senantiasa di hati kaum muslimin</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'siapa', 'yang', 'merusak', 'hubungan', 'seorang', 'wanita', 'dengan', 'suaminya', 'maka', 'dia', 'bukanlah', 'bagian', 'dari', 'kami', 'hr', 'ibnu', 'hibban']</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'di', 'hati', 'kaum', 'muslimin']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'di', 'hati', 'kaum', 'muslimin']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['khadijah', 'merusak', 'hubungan', 'wanita', 'suaminya', 'hr', 'ibnu', 'hibban']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['khadijah', 'rusak', 'hubung', 'wanita', 'suami', 'hr', 'ibnu', 'hibban']</t>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'hati', 'kaum', 'muslimin']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'hati', 'kaum', 'muslimin']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16733</v>
+        <v>27502</v>
       </c>
       <c r="C91" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt asma casing sama sekali tidak mempengaruhi atau menggangu kinerja hp selain sebagai pelindung hp casing juga mempercantik tam</t>
+          <t>rt salah satu faktor kuat yang menjadikan orangorang saat itu mudah menerima ajaran islam dan mengikuti hidayah yang rasulul</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'casing', 'sama', 'sekali', 'tidak', 'mempengaruhi', 'atau', 'menggangu', 'kinerja', 'hp', 'selain', 'sebagai', 'pelindung', 'hp', 'casing', 'juga', 'mempercantik', 'tam']</t>
+          <t>['rt', 'salah', 'satu', 'faktor', 'kuat', 'yang', 'menjadikan', 'orangorang', 'saat', 'itu', 'mudah', 'menerima', 'ajaran', 'islam', 'dan', 'mengikuti', 'hidayah', 'yang', 'rasulul']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'salah', 'satu', 'faktor', 'kuat', 'yang', 'menjadikan', 'orangorang', 'saat', 'itu', 'mudah', 'menerima', 'ajaran', 'islam', 'dan', 'mengikuti', 'hidayah', 'yang', 'rasulul']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['asma', 'casing', 'mempengaruhi', 'menggangu', 'kinerja', 'hp', 'pelindung', 'hp', 'casing', 'mempercantik', 'tam']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['asma', 'casing', 'pengaruh', 'menggangu', 'kerja', 'hp', 'lindung', 'hp', 'casing', 'cantik', 'tam']</t>
+          <t>['salah', 'faktor', 'kuat', 'menjadikan', 'orangorang', 'mudah', 'menerima', 'ajaran', 'islam', 'mengikuti', 'hidayah', 'rasulul']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['salah', 'faktor', 'kuat', 'jadi', 'orangorang', 'mudah', 'terima', 'ajar', 'islam', 'ikut', 'hidayah', 'rasulul']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16734</v>
+        <v>27503</v>
       </c>
       <c r="C92" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt sahabat nabi berkata aku telah berbakti ke ibuku tahunan kupenuhi sgala kbutuhannya apakh sebanding dgn yg ibuku laku</t>
+          <t>rt muhammad adalh seorang kepala negara dan punya perhatian besr pd kehidupan rakyat dan kebebasannya dia menghukm orang</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'sahabat', 'nabi', 'berkata', 'aku', 'telah', 'berbakti', 'ke', 'ibuku', 'tahunan', 'kupenuhi', 'sgala', 'kbutuhannya', 'apakh', 'sebanding', 'dgn', 'yg', 'ibuku', 'laku']</t>
+          <t>['rt', 'muhammad', 'adalh', 'seorang', 'kepala', 'negara', 'dan', 'punya', 'perhatian', 'besr', 'pd', 'kehidupan', 'rakyat', 'dan', 'kebebasannya', 'dia', 'menghukm', 'orang']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'muhammad', 'adalh', 'seorang', 'kepala', 'negara', 'dan', 'punya', 'perhatian', 'besr', 'pada', 'kehidupan', 'rakyat', 'dan', 'kebebasannya', 'dia', 'menghukm', 'orang']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['sahabat', 'nabi', 'berbakti', 'ibuku', 'tahunan', 'kupenuhi', 'sgala', 'kbutuhannya', 'apakh', 'sebanding', 'ibuku', 'laku']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['sahabat', 'nabi', 'bakti', 'ibu', 'tahun', 'penuh', 'sgala', 'kbutuhannya', 'apakh', 'banding', 'ibu', 'laku']</t>
+          <t>['muhammad', 'adalh', 'kepala', 'negara', 'perhatian', 'besr', 'kehidupan', 'rakyat', 'kebebasannya', 'menghukm', 'orang']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['muhammad', 'adalh', 'kepala', 'negara', 'perhati', 'besr', 'hidup', 'rakyat', 'bebas', 'menghukm', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16735</v>
+        <v>27504</v>
       </c>
       <c r="C93" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt tidak ada jabatan di dunia ini yang perlu dipertahankan matimatian gus dur</t>
+          <t>rt dan bahwa dia adalah umat dari muhammad saw dan siapa pun yang mengklaim kenabian nabuwwah setelah nabi muhammad sa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'tidak', 'ada', 'jabatan', 'di', 'dunia', 'ini', 'yang', 'perlu', 'dipertahankan', 'matimatian', 'gus', 'dur']</t>
+          <t>['rt', 'dan', 'bahwa', 'dia', 'adalah', 'umat', 'dari', 'muhammad', 'saw', 'dan', 'siapa', 'pun', 'yang', 'mengklaim', 'kenabian', 'nabuwwah', 'setelah', 'nabi', 'muhammad', 'sa']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'dan', 'bahwa', 'dia', 'adalah', 'umat', 'dari', 'muhammad', 'saw', 'dan', 'siapa', 'pun', 'yang', 'mengklaim', 'kenabian', 'nabuwwah', 'setelah', 'nabi', 'muhammad', 'sa']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['jabatan', 'dunia', 'dipertahankan', 'matimatian', 'gus', 'dur']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['jabat', 'dunia', 'tahan', 'matimatian', 'gus', 'dur']</t>
+          <t>['umat', 'muhammad', 'saw', 'mengklaim', 'kenabian', 'nabuwwah', 'nabi', 'muhammad', 'sa']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['umat', 'muhammad', 'saw', 'klaim', 'nabi', 'nabuwwah', 'nabi', 'muhammad', 'sa']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16736</v>
+        <v>27505</v>
       </c>
       <c r="C94" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt rajab adalah nama salah satu sungai di surga yang lebih putih dari susu dan lebih manis dari madu barang siapa yang be</t>
+          <t>rt tidak diterima iman tanpa amal dan amal tanpa iman nabi muhammad saw</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'rajab', 'adalah', 'nama', 'salah', 'satu', 'sungai', 'di', 'surga', 'yang', 'lebih', 'putih', 'dari', 'susu', 'dan', 'lebih', 'manis', 'dari', 'madu', 'barang', 'siapa', 'yang', 'be']</t>
+          <t>['rt', 'tidak', 'diterima', 'iman', 'tanpa', 'amal', 'dan', 'amal', 'tanpa', 'iman', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'diterima', 'iman', 'tanpa', 'amal', 'dan', 'amal', 'tanpa', 'iman', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['rajab', 'nama', 'salah', 'sungai', 'surga', 'putih', 'susu', 'manis', 'madu', 'barang', 'be']</t>
+          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['rajab', 'nama', 'salah', 'sungai', 'surga', 'putih', 'susu', 'manis', 'madu', 'barang', 'be']</t>
+          <t>['diterima', 'iman', 'amal', 'amal', 'iman', 'nabi', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['terima', 'iman', 'amal', 'amal', 'iman', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16737</v>
+        <v>27506</v>
       </c>
       <c r="C95" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>tidak ada jabatan di dunia ini yang perlu dipertahankan matimatian gus dur</t>
+          <t>salah satu tujuan bitsah rasulullah saw adalah untuk mengingatkan manusia atas segala karunia allah swt</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['tidak', 'ada', 'jabatan', 'di', 'dunia', 'ini', 'yang', 'perlu', 'dipertahankan', 'matimatian', 'gus', 'dur']</t>
+          <t>['salah', 'satu', 'tujuan', 'bitsah', 'rasulullah', 'saw', 'adalah', 'untuk', 'mengingatkan', 'manusia', 'atas', 'segala', 'karunia', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['salah', 'satu', 'tujuan', 'bitsah', 'rasulullah', 'saw', 'adalah', 'untuk', 'mengingatkan', 'manusia', 'atas', 'segala', 'karunia', 'allah', 'subhanahu, wa, taala']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['jabatan', 'dunia', 'dipertahankan', 'matimatian', 'gus', 'dur']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['jabat', 'dunia', 'tahan', 'matimatian', 'gus', 'dur']</t>
+          <t>['salah', 'tujuan', 'bitsah', 'rasulullah', 'saw', 'manusia', 'karunia', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['salah', 'tuju', 'bitsah', 'rasulullah', 'saw', 'manusia', 'karunia', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16738</v>
+        <v>27507</v>
       </c>
       <c r="C96" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rajab adalah nama salah satu sungai di surga yang lebih putih dari susu dan lebih manis dari madu barang siapa ya</t>
+          <t>nabi datang kepada manusia untuk menyampaikan risalah kepada mereka</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rajab', 'adalah', 'nama', 'salah', 'satu', 'sungai', 'di', 'surga', 'yang', 'lebih', 'putih', 'dari', 'susu', 'dan', 'lebih', 'manis', 'dari', 'madu', 'barang', 'siapa', 'ya']</t>
+          <t>['nabi', 'datang', 'kepada', 'manusia', 'untuk', 'menyampaikan', 'risalah', 'kepada', 'mereka']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['nabi', 'datang', 'kepada', 'manusia', 'untuk', 'menyampaikan', 'risalah', 'kepada', 'mereka']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['rajab', 'nama', 'salah', 'sungai', 'surga', 'putih', 'susu', 'manis', 'madu', 'barang']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['rajab', 'nama', 'salah', 'sungai', 'surga', 'putih', 'susu', 'manis', 'madu', 'barang']</t>
+          <t>['nabi', 'manusia', 'risalah']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['nabi', 'manusia', 'risalah']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4367,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16739</v>
+        <v>27508</v>
       </c>
       <c r="C97" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt dont judge by cover</t>
+          <t>para nabi diutus supaya manusia mengakui janji fitrawi dan menepatinya berdasarkan janji tersebut allah swt memint</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'dont', 'judge', 'by', 'cover']</t>
+          <t>['para', 'nabi', 'diutus', 'supaya', 'manusia', 'mengakui', 'janji', 'fitrawi', 'dan', 'menepatinya', 'berdasarkan', 'janji', 'tersebut', 'allah', 'swt', 'memint']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['para', 'nabi', 'diutus', 'supaya', 'manusia', 'mengakui', 'janji', 'fitrawi', 'dan', 'menepatinya', 'berdasarkan', 'janji', 'tersebut', 'allah', 'subhanahu, wa, taala', 'memint']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['dont', 'judge', 'by', 'cover']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['dont', 'judge', 'by', 'cover']</t>
+          <t>['nabi', 'diutus', 'manusia', 'mengakui', 'janji', 'fitrawi', 'menepatinya', 'berdasarkan', 'janji', 'allah', 'subhanahu, wa, taala', 'memint']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['nabi', 'utus', 'manusia', 'aku', 'janji', 'fitrawi', 'tepat', 'dasar', 'janji', 'allah', 'subhanahu wa taala', 'memint']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4408,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16740</v>
+        <v>27509</v>
       </c>
       <c r="C98" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>allah swt mengutus rasulnya yg terpilih di antara manusia dan mengutus para nabinya yg dtg silih berganti supay</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['allah', 'swt', 'mengutus', 'rasulnya', 'yg', 'terpilih', 'di', 'antara', 'manusia', 'dan', 'mengutus', 'para', 'nabinya', 'yg', 'dtg', 'silih', 'berganti', 'supay']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['allah', 'subhanahu, wa, taala', 'mengutus', 'rasulnya', 'yang', 'terpilih', 'di', 'antara', 'manusia', 'dan', 'mengutus', 'para', 'nabinya', 'yang', 'datang', 'silih', 'berganti', 'supay']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['allah', 'subhanahu, wa, taala', 'mengutus', 'rasulnya', 'terpilih', 'manusia', 'mengutus', 'nabinya', 'silih', 'berganti', 'supay']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['allah', 'subhanahu wa taala', 'utus', 'rasul', 'pilih', 'manusia', 'utus', 'nabi', 'silih', 'ganti', 'supay']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4449,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16741</v>
+        <v>27510</v>
       </c>
       <c r="C99" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>hari bitsat adalah hari raya sejati</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['hari', 'bitsat', 'adalah', 'hari', 'raya', 'sejati']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['hari', 'bitsat', 'adalah', 'hari', 'raya', 'sejati']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bitsat', 'raya', 'sejati']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['bitsat', 'raya', 'sejati']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4490,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16742</v>
+        <v>27511</v>
       </c>
       <c r="C100" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>hari raya bitsah adalah hari kebangkitan untuk menghilangkan penderitaan umat manusia</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['hari', 'raya', 'bitsah', 'adalah', 'hari', 'kebangkitan', 'untuk', 'menghilangkan', 'penderitaan', 'umat', 'manusia']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['hari', 'raya', 'bitsah', 'adalah', 'hari', 'kebangkitan', 'untuk', 'menghilangkan', 'penderitaan', 'umat', 'manusia']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['raya', 'bitsah', 'kebangkitan', 'menghilangkan', 'penderitaan', 'umat', 'manusia']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['raya', 'bitsah', 'bangkit', 'hilang', 'derita', 'umat', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4531,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16743</v>
+        <v>27512</v>
       </c>
       <c r="C101" t="n">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>lagi rame nih beritanya dengan tagar</t>
+          <t>bitsah adalah awal kerasulan muhammad shalallahu alaihi wa sallam</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['lagi', 'rame', 'nih', 'beritanya', 'dengan', 'tagar']</t>
+          <t>['bitsah', 'adalah', 'awal', 'kerasulan', 'muhammad', 'shalallahu', 'alaihi', 'wa', 'sallam']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['bitsah', 'adalah', 'awal', 'kerasulan', 'muhammad', 'shalallahu', 'alaihi', 'wa', 'salam']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['rame', 'beritanya', 'tagar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['rame', 'berita', 'tagar']</t>
+          <t>['bitsah', 'kerasulan', 'muhammad', 'shalallahu', 'alaihi', 'wa', 'salam']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['bitsah', 'rasul', 'muhammad', 'shalallahu', 'alaihi', 'wa', 'salam']</t>
         </is>
       </c>
     </row>
